--- a/Data/CountyTownMA.xlsx
+++ b/Data/CountyTownMA.xlsx
@@ -1,12 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="26221"/>
+  <workbookPr autoCompressPictures="0"/>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="1080" windowWidth="25600" windowHeight="14980" tabRatio="500"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="CountyTownMA.csv" sheetId="1" r:id="rId3"/>
+    <sheet name="CountyTownMA.csv" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -724,9 +732,6 @@
     <t>North Andover</t>
   </si>
   <si>
-    <t>North Attleborough</t>
-  </si>
-  <si>
     <t>North Brookfield</t>
   </si>
   <si>
@@ -1145,64 +1150,390 @@
   </si>
   <si>
     <t>Yarmouth</t>
+  </si>
+  <si>
+    <t>North Attleboro</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
-    <font/>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="3">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="3" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="100000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:shade val="100000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </a:style>
+    </a:spDef>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
+  <a:extraClrSchemeLst/>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F352"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A185" workbookViewId="0">
+      <selection activeCell="A212" sqref="A212"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1222,7 +1553,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
@@ -1236,13 +1567,13 @@
         <v>9</v>
       </c>
       <c r="E2" s="2">
-        <v>15985.0</v>
+        <v>15985</v>
       </c>
       <c r="F2" s="1">
-        <v>1712.0</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>1712</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" customHeight="1">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -1256,13 +1587,13 @@
         <v>9</v>
       </c>
       <c r="E3" s="2">
-        <v>21924.0</v>
+        <v>21924</v>
       </c>
       <c r="F3" s="1">
-        <v>1735.0</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>1735</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15.75" customHeight="1">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
@@ -1276,13 +1607,13 @@
         <v>9</v>
       </c>
       <c r="E4" s="2">
-        <v>10303.0</v>
+        <v>10303</v>
       </c>
       <c r="F4" s="1">
-        <v>1860.0</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>1860</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15.75" customHeight="1">
       <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
@@ -1296,13 +1627,13 @@
         <v>16</v>
       </c>
       <c r="E5" s="2">
-        <v>8485.0</v>
+        <v>8485</v>
       </c>
       <c r="F5" s="1">
-        <v>1778.0</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>1778</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15.75" customHeight="1">
       <c r="A6" s="1" t="s">
         <v>17</v>
       </c>
@@ -1316,13 +1647,13 @@
         <v>20</v>
       </c>
       <c r="E6" s="2">
-        <v>28438.0</v>
+        <v>28438</v>
       </c>
       <c r="F6" s="1">
-        <v>1855.0</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>1855</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15.75" customHeight="1">
       <c r="A7" s="1" t="s">
         <v>21</v>
       </c>
@@ -1336,13 +1667,13 @@
         <v>9</v>
       </c>
       <c r="E7" s="1">
-        <v>494.0</v>
+        <v>494</v>
       </c>
       <c r="F7" s="1">
-        <v>1773.0</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>1773</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15.75" customHeight="1">
       <c r="A8" s="1" t="s">
         <v>22</v>
       </c>
@@ -1356,13 +1687,13 @@
         <v>20</v>
       </c>
       <c r="E8" s="2">
-        <v>16283.0</v>
+        <v>16283</v>
       </c>
       <c r="F8" s="1">
-        <v>1668.0</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>1668</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15.75" customHeight="1">
       <c r="A9" s="1" t="s">
         <v>24</v>
       </c>
@@ -1376,13 +1707,13 @@
         <v>16</v>
       </c>
       <c r="E9" s="2">
-        <v>37819.0</v>
+        <v>37819</v>
       </c>
       <c r="F9" s="1">
-        <v>1775.0</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>1775</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="15.75" customHeight="1">
       <c r="A10" s="1" t="s">
         <v>26</v>
       </c>
@@ -1396,13 +1727,13 @@
         <v>9</v>
       </c>
       <c r="E10" s="2">
-        <v>33201.0</v>
+        <v>33201</v>
       </c>
       <c r="F10" s="1">
-        <v>1646.0</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>1646</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="15.75" customHeight="1">
       <c r="A11" s="1" t="s">
         <v>27</v>
       </c>
@@ -1416,13 +1747,13 @@
         <v>9</v>
       </c>
       <c r="E11" s="1">
-        <v>311.0</v>
+        <v>311</v>
       </c>
       <c r="F11" s="1">
-        <v>1870.0</v>
-      </c>
-    </row>
-    <row r="12">
+        <v>1870</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="15.75" customHeight="1">
       <c r="A12" s="1" t="s">
         <v>29</v>
       </c>
@@ -1436,13 +1767,13 @@
         <v>16</v>
       </c>
       <c r="E12" s="2">
-        <v>42844.0</v>
+        <v>42844</v>
       </c>
       <c r="F12" s="1">
-        <v>1807.0</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>1807</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="15.75" customHeight="1">
       <c r="A13" s="1" t="s">
         <v>30</v>
       </c>
@@ -1456,13 +1787,13 @@
         <v>9</v>
       </c>
       <c r="E13" s="2">
-        <v>6081.0</v>
+        <v>6081</v>
       </c>
       <c r="F13" s="1">
-        <v>1765.0</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>1765</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="15.75" customHeight="1">
       <c r="A14" s="1" t="s">
         <v>32</v>
       </c>
@@ -1476,13 +1807,13 @@
         <v>9</v>
       </c>
       <c r="E14" s="2">
-        <v>3074.0</v>
+        <v>3074</v>
       </c>
       <c r="F14" s="1">
-        <v>1767.0</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>1767</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="15.75" customHeight="1">
       <c r="A15" s="1" t="s">
         <v>33</v>
       </c>
@@ -1496,13 +1827,13 @@
         <v>9</v>
       </c>
       <c r="E15" s="2">
-        <v>1737.0</v>
+        <v>1737</v>
       </c>
       <c r="F15" s="1">
-        <v>1765.0</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>1765</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="15.75" customHeight="1">
       <c r="A16" s="1" t="s">
         <v>35</v>
       </c>
@@ -1516,13 +1847,13 @@
         <v>9</v>
       </c>
       <c r="E16" s="2">
-        <v>16593.0</v>
+        <v>16593</v>
       </c>
       <c r="F16" s="1">
-        <v>1846.0</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>1846</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15.75" customHeight="1">
       <c r="A17" s="1" t="s">
         <v>36</v>
       </c>
@@ -1536,13 +1867,13 @@
         <v>9</v>
       </c>
       <c r="E17" s="2">
-        <v>11584.0</v>
+        <v>11584</v>
       </c>
       <c r="F17" s="1">
-        <v>1762.0</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>1762</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="15.75" customHeight="1">
       <c r="A18" s="1" t="s">
         <v>37</v>
       </c>
@@ -1556,13 +1887,13 @@
         <v>20</v>
       </c>
       <c r="E18" s="2">
-        <v>43593.0</v>
+        <v>43593</v>
       </c>
       <c r="F18" s="1">
-        <v>1694.0</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>1694</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="15.75" customHeight="1">
       <c r="A19" s="1" t="s">
         <v>38</v>
       </c>
@@ -1576,13 +1907,13 @@
         <v>16</v>
       </c>
       <c r="E19" s="2">
-        <v>16188.0</v>
+        <v>16188</v>
       </c>
       <c r="F19" s="1">
-        <v>1778.0</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>1778</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15.75" customHeight="1">
       <c r="A20" s="1" t="s">
         <v>39</v>
       </c>
@@ -1596,13 +1927,13 @@
         <v>9</v>
       </c>
       <c r="E20" s="2">
-        <v>4356.0</v>
+        <v>4356</v>
       </c>
       <c r="F20" s="1">
-        <v>1888.0</v>
-      </c>
-    </row>
-    <row r="21">
+        <v>1888</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" ht="15.75" customHeight="1">
       <c r="A21" s="1" t="s">
         <v>41</v>
       </c>
@@ -1616,13 +1947,13 @@
         <v>9</v>
       </c>
       <c r="E21" s="2">
-        <v>7427.0</v>
+        <v>7427</v>
       </c>
       <c r="F21" s="1">
-        <v>1871.0</v>
-      </c>
-    </row>
-    <row r="22">
+        <v>1871</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" ht="15.75" customHeight="1">
       <c r="A22" s="1" t="s">
         <v>42</v>
       </c>
@@ -1636,13 +1967,13 @@
         <v>43</v>
       </c>
       <c r="E22" s="2">
-        <v>45193.0</v>
+        <v>45193</v>
       </c>
       <c r="F22" s="1">
-        <v>1638.0</v>
-      </c>
-    </row>
-    <row r="23">
+        <v>1638</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="15.75" customHeight="1">
       <c r="A23" s="1" t="s">
         <v>44</v>
       </c>
@@ -1656,13 +1987,13 @@
         <v>9</v>
       </c>
       <c r="E23" s="2">
-        <v>5398.0</v>
+        <v>5398</v>
       </c>
       <c r="F23" s="1">
-        <v>1774.0</v>
-      </c>
-    </row>
-    <row r="24">
+        <v>1774</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" ht="15.75" customHeight="1">
       <c r="A24" s="1" t="s">
         <v>45</v>
       </c>
@@ -1676,13 +2007,13 @@
         <v>9</v>
       </c>
       <c r="E24" s="2">
-        <v>1779.0</v>
+        <v>1779</v>
       </c>
       <c r="F24" s="1">
-        <v>1765.0</v>
-      </c>
-    </row>
-    <row r="25">
+        <v>1765</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="15.75" customHeight="1">
       <c r="A25" s="1" t="s">
         <v>46</v>
       </c>
@@ -1696,13 +2027,13 @@
         <v>9</v>
       </c>
       <c r="E25" s="2">
-        <v>13320.0</v>
+        <v>13320</v>
       </c>
       <c r="F25" s="1">
-        <v>1729.0</v>
-      </c>
-    </row>
-    <row r="26">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="15.75" customHeight="1">
       <c r="A26" s="1" t="s">
         <v>47</v>
       </c>
@@ -1716,13 +2047,13 @@
         <v>9</v>
       </c>
       <c r="E26" s="2">
-        <v>14649.0</v>
+        <v>14649</v>
       </c>
       <c r="F26" s="1">
-        <v>1761.0</v>
-      </c>
-    </row>
-    <row r="27">
+        <v>1761</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" ht="15.75" customHeight="1">
       <c r="A27" s="1" t="s">
         <v>48</v>
       </c>
@@ -1736,13 +2067,13 @@
         <v>9</v>
       </c>
       <c r="E27" s="2">
-        <v>16332.0</v>
+        <v>16332</v>
       </c>
       <c r="F27" s="1">
-        <v>1719.0</v>
-      </c>
-    </row>
-    <row r="28">
+        <v>1719</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" ht="15.75" customHeight="1">
       <c r="A28" s="1" t="s">
         <v>49</v>
       </c>
@@ -1756,13 +2087,13 @@
         <v>16</v>
       </c>
       <c r="E28" s="2">
-        <v>24729.0</v>
+        <v>24729</v>
       </c>
       <c r="F28" s="1">
-        <v>1859.0</v>
-      </c>
-    </row>
-    <row r="29">
+        <v>1859</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="15.75" customHeight="1">
       <c r="A29" s="1" t="s">
         <v>50</v>
       </c>
@@ -1776,13 +2107,13 @@
         <v>9</v>
       </c>
       <c r="E29" s="2">
-        <v>6411.0</v>
+        <v>6411</v>
       </c>
       <c r="F29" s="1">
-        <v>1735.0</v>
-      </c>
-    </row>
-    <row r="30">
+        <v>1735</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" ht="15.75" customHeight="1">
       <c r="A30" s="1" t="s">
         <v>51</v>
       </c>
@@ -1796,13 +2127,13 @@
         <v>9</v>
       </c>
       <c r="E30" s="2">
-        <v>2866.0</v>
+        <v>2866</v>
       </c>
       <c r="F30" s="1">
-        <v>1812.0</v>
-      </c>
-    </row>
-    <row r="31">
+        <v>1812</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="15.75" customHeight="1">
       <c r="A31" s="1" t="s">
         <v>52</v>
       </c>
@@ -1816,13 +2147,13 @@
         <v>9</v>
       </c>
       <c r="E31" s="2">
-        <v>2129.0</v>
+        <v>2129</v>
       </c>
       <c r="F31" s="1">
-        <v>1762.0</v>
-      </c>
-    </row>
-    <row r="32">
+        <v>1762</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="15.75" customHeight="1">
       <c r="A32" s="1" t="s">
         <v>53</v>
       </c>
@@ -1836,13 +2167,13 @@
         <v>20</v>
       </c>
       <c r="E32" s="2">
-        <v>39502.0</v>
+        <v>39502</v>
       </c>
       <c r="F32" s="1">
-        <v>1668.0</v>
-      </c>
-    </row>
-    <row r="33">
+        <v>1668</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" ht="15.75" customHeight="1">
       <c r="A33" s="1" t="s">
         <v>54</v>
       </c>
@@ -1856,13 +2187,13 @@
         <v>16</v>
       </c>
       <c r="E33" s="2">
-        <v>40243.0</v>
+        <v>40243</v>
       </c>
       <c r="F33" s="1">
-        <v>1655.0</v>
-      </c>
-    </row>
-    <row r="34">
+        <v>1655</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="15.75" customHeight="1">
       <c r="A34" s="1" t="s">
         <v>55</v>
       </c>
@@ -1876,13 +2207,13 @@
         <v>9</v>
       </c>
       <c r="E34" s="2">
-        <v>9026.0</v>
+        <v>9026</v>
       </c>
       <c r="F34" s="1">
-        <v>1845.0</v>
-      </c>
-    </row>
-    <row r="35">
+        <v>1845</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="15.75" customHeight="1">
       <c r="A35" s="1" t="s">
         <v>56</v>
       </c>
@@ -1896,13 +2227,13 @@
         <v>9</v>
       </c>
       <c r="E35" s="2">
-        <v>1233.0</v>
+        <v>1233</v>
       </c>
       <c r="F35" s="1">
-        <v>1741.0</v>
-      </c>
-    </row>
-    <row r="36">
+        <v>1741</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="15.75" customHeight="1">
       <c r="A36" s="1" t="s">
         <v>57</v>
       </c>
@@ -1916,13 +2247,13 @@
         <v>9</v>
       </c>
       <c r="E36" s="2">
-        <v>4897.0</v>
+        <v>4897</v>
       </c>
       <c r="F36" s="1">
-        <v>1738.0</v>
-      </c>
-    </row>
-    <row r="37">
+        <v>1738</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="15.75" customHeight="1">
       <c r="A37" s="1" t="s">
         <v>58</v>
       </c>
@@ -1939,10 +2270,10 @@
         <v>60</v>
       </c>
       <c r="F37" s="1">
-        <v>1630.0</v>
-      </c>
-    </row>
-    <row r="38">
+        <v>1630</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="15.75" customHeight="1">
       <c r="A38" s="1" t="s">
         <v>61</v>
       </c>
@@ -1956,13 +2287,13 @@
         <v>9</v>
       </c>
       <c r="E38" s="2">
-        <v>19754.0</v>
+        <v>19754</v>
       </c>
       <c r="F38" s="1">
-        <v>1884.0</v>
-      </c>
-    </row>
-    <row r="39">
+        <v>1884</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="15.75" customHeight="1">
       <c r="A39" s="1" t="s">
         <v>62</v>
       </c>
@@ -1976,13 +2307,13 @@
         <v>9</v>
       </c>
       <c r="E39" s="2">
-        <v>4996.0</v>
+        <v>4996</v>
       </c>
       <c r="F39" s="1">
-        <v>1835.0</v>
-      </c>
-    </row>
-    <row r="40">
+        <v>1835</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="15.75" customHeight="1">
       <c r="A40" s="1" t="s">
         <v>63</v>
       </c>
@@ -1996,13 +2327,13 @@
         <v>9</v>
       </c>
       <c r="E40" s="2">
-        <v>7965.0</v>
+        <v>7965</v>
       </c>
       <c r="F40" s="1">
-        <v>1685.0</v>
-      </c>
-    </row>
-    <row r="41">
+        <v>1685</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="15.75" customHeight="1">
       <c r="A41" s="1" t="s">
         <v>64</v>
       </c>
@@ -2016,13 +2347,13 @@
         <v>9</v>
       </c>
       <c r="E41" s="2">
-        <v>4355.0</v>
+        <v>4355</v>
       </c>
       <c r="F41" s="1">
-        <v>1785.0</v>
-      </c>
-    </row>
-    <row r="42">
+        <v>1785</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="15.75" customHeight="1">
       <c r="A42" s="1" t="s">
         <v>65</v>
       </c>
@@ -2036,13 +2367,13 @@
         <v>20</v>
       </c>
       <c r="E42" s="2">
-        <v>35744.0</v>
+        <v>35744</v>
       </c>
       <c r="F42" s="1">
-        <v>1640.0</v>
-      </c>
-    </row>
-    <row r="43">
+        <v>1640</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="15.75" customHeight="1">
       <c r="A43" s="1" t="s">
         <v>66</v>
       </c>
@@ -2056,13 +2387,13 @@
         <v>9</v>
       </c>
       <c r="E43" s="2">
-        <v>9820.0</v>
+        <v>9820</v>
       </c>
       <c r="F43" s="1">
-        <v>1803.0</v>
-      </c>
-    </row>
-    <row r="44">
+        <v>1803</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" ht="15.75" customHeight="1">
       <c r="A44" s="1" t="s">
         <v>67</v>
       </c>
@@ -2076,13 +2407,13 @@
         <v>43</v>
       </c>
       <c r="E44" s="2">
-        <v>26563.0</v>
+        <v>26563</v>
       </c>
       <c r="F44" s="1">
-        <v>1656.0</v>
-      </c>
-    </row>
-    <row r="45">
+        <v>1656</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="15.75" customHeight="1">
       <c r="A45" s="1" t="s">
         <v>68</v>
       </c>
@@ -2096,13 +2427,13 @@
         <v>9</v>
       </c>
       <c r="E45" s="2">
-        <v>3609.0</v>
+        <v>3609</v>
       </c>
       <c r="F45" s="1">
-        <v>1731.0</v>
-      </c>
-    </row>
-    <row r="46">
+        <v>1731</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="15.75" customHeight="1">
       <c r="A46" s="1" t="s">
         <v>69</v>
       </c>
@@ -2116,13 +2447,13 @@
         <v>20</v>
       </c>
       <c r="E46" s="2">
-        <v>93810.0</v>
+        <v>93810</v>
       </c>
       <c r="F46" s="1">
-        <v>1821.0</v>
-      </c>
-    </row>
-    <row r="47">
+        <v>1821</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" ht="15.75" customHeight="1">
       <c r="A47" s="1" t="s">
         <v>70</v>
       </c>
@@ -2136,13 +2467,13 @@
         <v>9</v>
       </c>
       <c r="E47" s="2">
-        <v>3390.0</v>
+        <v>3390</v>
       </c>
       <c r="F47" s="1">
-        <v>1718.0</v>
-      </c>
-    </row>
-    <row r="48">
+        <v>1718</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" ht="15.75" customHeight="1">
       <c r="A48" s="1" t="s">
         <v>71</v>
       </c>
@@ -2156,13 +2487,13 @@
         <v>16</v>
       </c>
       <c r="E48" s="2">
-        <v>58732.0</v>
+        <v>58732</v>
       </c>
       <c r="F48" s="1">
-        <v>1705.0</v>
-      </c>
-    </row>
-    <row r="49">
+        <v>1705</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="15.75" customHeight="1">
       <c r="A49" s="1" t="s">
         <v>72</v>
       </c>
@@ -2176,13 +2507,13 @@
         <v>9</v>
       </c>
       <c r="E49" s="2">
-        <v>1902.0</v>
+        <v>1902</v>
       </c>
       <c r="F49" s="1">
-        <v>1779.0</v>
-      </c>
-    </row>
-    <row r="50">
+        <v>1779</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="15.75" customHeight="1">
       <c r="A50" s="1" t="s">
         <v>73</v>
       </c>
@@ -2196,13 +2527,13 @@
         <v>16</v>
       </c>
       <c r="E50" s="2">
-        <v>24498.0</v>
+        <v>24498</v>
       </c>
       <c r="F50" s="1">
-        <v>1799.0</v>
-      </c>
-    </row>
-    <row r="51">
+        <v>1799</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" ht="15.75" customHeight="1">
       <c r="A51" s="1" t="s">
         <v>74</v>
       </c>
@@ -2219,10 +2550,10 @@
         <v>76</v>
       </c>
       <c r="F51" s="1">
-        <v>1636.0</v>
-      </c>
-    </row>
-    <row r="52">
+        <v>1636</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="15.75" customHeight="1">
       <c r="A52" s="1" t="s">
         <v>77</v>
       </c>
@@ -2236,13 +2567,13 @@
         <v>9</v>
       </c>
       <c r="E52" s="2">
-        <v>21561.0</v>
+        <v>21561</v>
       </c>
       <c r="F52" s="1">
-        <v>1797.0</v>
-      </c>
-    </row>
-    <row r="53">
+        <v>1797</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="15.75" customHeight="1">
       <c r="A53" s="1" t="s">
         <v>78</v>
       </c>
@@ -2256,13 +2587,13 @@
         <v>9</v>
       </c>
       <c r="E53" s="2">
-        <v>4852.0</v>
+        <v>4852</v>
       </c>
       <c r="F53" s="1">
-        <v>1780.0</v>
-      </c>
-    </row>
-    <row r="54">
+        <v>1780</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="15.75" customHeight="1">
       <c r="A54" s="1" t="s">
         <v>79</v>
       </c>
@@ -2276,13 +2607,13 @@
         <v>9</v>
       </c>
       <c r="E54" s="2">
-        <v>11509.0</v>
+        <v>11509</v>
       </c>
       <c r="F54" s="1">
-        <v>1790.0</v>
-      </c>
-    </row>
-    <row r="55">
+        <v>1790</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" ht="15.75" customHeight="1">
       <c r="A55" s="1" t="s">
         <v>80</v>
       </c>
@@ -2296,13 +2627,13 @@
         <v>9</v>
       </c>
       <c r="E55" s="2">
-        <v>1266.0</v>
+        <v>1266</v>
       </c>
       <c r="F55" s="1">
-        <v>1765.0</v>
-      </c>
-    </row>
-    <row r="56">
+        <v>1765</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" ht="15.75" customHeight="1">
       <c r="A56" s="1" t="s">
         <v>81</v>
       </c>
@@ -2316,13 +2647,13 @@
         <v>9</v>
       </c>
       <c r="E56" s="2">
-        <v>12981.0</v>
+        <v>12981</v>
       </c>
       <c r="F56" s="1">
-        <v>1775.0</v>
-      </c>
-    </row>
-    <row r="57">
+        <v>1775</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="15.75" customHeight="1">
       <c r="A57" s="1" t="s">
         <v>82</v>
       </c>
@@ -2336,13 +2667,13 @@
         <v>9</v>
       </c>
       <c r="E57" s="2">
-        <v>6125.0</v>
+        <v>6125</v>
       </c>
       <c r="F57" s="1">
-        <v>1712.0</v>
-      </c>
-    </row>
-    <row r="58">
+        <v>1712</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="15.75" customHeight="1">
       <c r="A58" s="1" t="s">
         <v>83</v>
       </c>
@@ -2356,13 +2687,13 @@
         <v>16</v>
       </c>
       <c r="E58" s="2">
-        <v>33802.0</v>
+        <v>33802</v>
       </c>
       <c r="F58" s="1">
-        <v>1655.0</v>
-      </c>
-    </row>
-    <row r="59">
+        <v>1655</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="15.75" customHeight="1">
       <c r="A59" s="1" t="s">
         <v>84</v>
       </c>
@@ -2376,13 +2707,13 @@
         <v>43</v>
       </c>
       <c r="E59" s="2">
-        <v>35177.0</v>
+        <v>35177</v>
       </c>
       <c r="F59" s="1">
-        <v>1739.0</v>
-      </c>
-    </row>
-    <row r="60">
+        <v>1739</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="15.75" customHeight="1">
       <c r="A60" s="1" t="s">
         <v>85</v>
       </c>
@@ -2396,13 +2727,13 @@
         <v>9</v>
       </c>
       <c r="E60" s="2">
-        <v>3235.0</v>
+        <v>3235</v>
       </c>
       <c r="F60" s="1">
-        <v>1793.0</v>
-      </c>
-    </row>
-    <row r="61">
+        <v>1793</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="15.75" customHeight="1">
       <c r="A61" s="1" t="s">
         <v>86</v>
       </c>
@@ -2416,13 +2747,13 @@
         <v>9</v>
       </c>
       <c r="E61" s="2">
-        <v>1337.0</v>
+        <v>1337</v>
       </c>
       <c r="F61" s="1">
-        <v>1765.0</v>
-      </c>
-    </row>
-    <row r="62">
+        <v>1765</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" ht="15.75" customHeight="1">
       <c r="A62" s="1" t="s">
         <v>87</v>
       </c>
@@ -2436,13 +2767,13 @@
         <v>9</v>
       </c>
       <c r="E62" s="2">
-        <v>1222.0</v>
+        <v>1222</v>
       </c>
       <c r="F62" s="1">
-        <v>1762.0</v>
-      </c>
-    </row>
-    <row r="63">
+        <v>1762</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="15.75" customHeight="1">
       <c r="A63" s="1" t="s">
         <v>88</v>
       </c>
@@ -2456,13 +2787,13 @@
         <v>89</v>
       </c>
       <c r="E63" s="2">
-        <v>55298.0</v>
+        <v>55298</v>
       </c>
       <c r="F63" s="1">
-        <v>1848.0</v>
-      </c>
-    </row>
-    <row r="64">
+        <v>1848</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" ht="15.75" customHeight="1">
       <c r="A64" s="1" t="s">
         <v>90</v>
       </c>
@@ -2476,13 +2807,13 @@
         <v>9</v>
       </c>
       <c r="E64" s="1">
-        <v>866.0</v>
+        <v>866</v>
       </c>
       <c r="F64" s="1">
-        <v>1714.0</v>
-      </c>
-    </row>
-    <row r="65">
+        <v>1714</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" ht="15.75" customHeight="1">
       <c r="A65" s="1" t="s">
         <v>91</v>
       </c>
@@ -2496,13 +2827,13 @@
         <v>9</v>
       </c>
       <c r="E65" s="2">
-        <v>1702.0</v>
+        <v>1702</v>
       </c>
       <c r="F65" s="1">
-        <v>1798.0</v>
-      </c>
-    </row>
-    <row r="66">
+        <v>1798</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" ht="15.75" customHeight="1">
       <c r="A66" s="1" t="s">
         <v>92</v>
       </c>
@@ -2516,13 +2847,13 @@
         <v>9</v>
       </c>
       <c r="E66" s="2">
-        <v>13606.0</v>
+        <v>13606</v>
       </c>
       <c r="F66" s="1">
-        <v>1850.0</v>
-      </c>
-    </row>
-    <row r="67">
+        <v>1850</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" ht="15.75" customHeight="1">
       <c r="A67" s="1" t="s">
         <v>93</v>
       </c>
@@ -2536,13 +2867,13 @@
         <v>9</v>
       </c>
       <c r="E67" s="2">
-        <v>7542.0</v>
+        <v>7542</v>
       </c>
       <c r="F67" s="1">
-        <v>1775.0</v>
-      </c>
-    </row>
-    <row r="68">
+        <v>1775</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" ht="15.75" customHeight="1">
       <c r="A68" s="1" t="s">
         <v>94</v>
       </c>
@@ -2556,13 +2887,13 @@
         <v>9</v>
       </c>
       <c r="E68" s="2">
-        <v>1671.0</v>
+        <v>1671</v>
       </c>
       <c r="F68" s="1">
-        <v>1761.0</v>
-      </c>
-    </row>
-    <row r="69">
+        <v>1761</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" ht="15.75" customHeight="1">
       <c r="A69" s="1" t="s">
         <v>95</v>
       </c>
@@ -2576,13 +2907,13 @@
         <v>9</v>
       </c>
       <c r="E69" s="2">
-        <v>17668.0</v>
+        <v>17668</v>
       </c>
       <c r="F69" s="1">
-        <v>1635.0</v>
-      </c>
-    </row>
-    <row r="70">
+        <v>1635</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" ht="15.75" customHeight="1">
       <c r="A70" s="1" t="s">
         <v>96</v>
       </c>
@@ -2596,13 +2927,13 @@
         <v>9</v>
       </c>
       <c r="E70" s="2">
-        <v>1897.0</v>
+        <v>1897</v>
       </c>
       <c r="F70" s="1">
-        <v>1775.0</v>
-      </c>
-    </row>
-    <row r="71">
+        <v>1775</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" ht="15.75" customHeight="1">
       <c r="A71" s="1" t="s">
         <v>97</v>
       </c>
@@ -2616,13 +2947,13 @@
         <v>9</v>
       </c>
       <c r="E71" s="1">
-        <v>872.0</v>
+        <v>872</v>
       </c>
       <c r="F71" s="1">
-        <v>1779.0</v>
-      </c>
-    </row>
-    <row r="72">
+        <v>1779</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" ht="15.75" customHeight="1">
       <c r="A72" s="1" t="s">
         <v>98</v>
       </c>
@@ -2636,13 +2967,13 @@
         <v>9</v>
       </c>
       <c r="E72" s="2">
-        <v>6756.0</v>
+        <v>6756</v>
       </c>
       <c r="F72" s="1">
-        <v>1784.0</v>
-      </c>
-    </row>
-    <row r="73">
+        <v>1784</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" ht="15.75" customHeight="1">
       <c r="A73" s="1" t="s">
         <v>99</v>
       </c>
@@ -2656,13 +2987,13 @@
         <v>16</v>
       </c>
       <c r="E73" s="2">
-        <v>26493.0</v>
+        <v>26493</v>
       </c>
       <c r="F73" s="1">
-        <v>1775.0</v>
-      </c>
-    </row>
-    <row r="74">
+        <v>1775</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" ht="15.75" customHeight="1">
       <c r="A74" s="1" t="s">
         <v>100</v>
       </c>
@@ -2676,13 +3007,13 @@
         <v>16</v>
       </c>
       <c r="E74" s="2">
-        <v>34032.0</v>
+        <v>34032</v>
       </c>
       <c r="F74" s="1">
-        <v>1664.0</v>
-      </c>
-    </row>
-    <row r="75">
+        <v>1664</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" ht="15.75" customHeight="1">
       <c r="A75" s="1" t="s">
         <v>101</v>
       </c>
@@ -2696,13 +3027,13 @@
         <v>16</v>
       </c>
       <c r="E75" s="2">
-        <v>24729.0</v>
+        <v>24729</v>
       </c>
       <c r="F75" s="1">
-        <v>1636.0</v>
-      </c>
-    </row>
-    <row r="76">
+        <v>1636</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" ht="15.75" customHeight="1">
       <c r="A76" s="1" t="s">
         <v>102</v>
       </c>
@@ -2716,13 +3047,13 @@
         <v>9</v>
       </c>
       <c r="E76" s="2">
-        <v>5125.0</v>
+        <v>5125</v>
       </c>
       <c r="F76" s="1">
-        <v>1677.0</v>
-      </c>
-    </row>
-    <row r="77">
+        <v>1677</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" ht="15.75" customHeight="1">
       <c r="A77" s="1" t="s">
         <v>103</v>
       </c>
@@ -2736,13 +3067,13 @@
         <v>9</v>
       </c>
       <c r="E77" s="2">
-        <v>14207.0</v>
+        <v>14207</v>
       </c>
       <c r="F77" s="1">
-        <v>1793.0</v>
-      </c>
-    </row>
-    <row r="78">
+        <v>1793</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" ht="15.75" customHeight="1">
       <c r="A78" s="1" t="s">
         <v>104</v>
       </c>
@@ -2756,13 +3087,13 @@
         <v>9</v>
       </c>
       <c r="E78" s="2">
-        <v>7086.0</v>
+        <v>7086</v>
       </c>
       <c r="F78" s="1">
-        <v>1712.0</v>
-      </c>
-    </row>
-    <row r="79">
+        <v>1712</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" ht="15.75" customHeight="1">
       <c r="A79" s="1" t="s">
         <v>105</v>
       </c>
@@ -2776,13 +3107,13 @@
         <v>9</v>
       </c>
       <c r="E79" s="2">
-        <v>8471.0</v>
+        <v>8471</v>
       </c>
       <c r="F79" s="1">
-        <v>1775.0</v>
-      </c>
-    </row>
-    <row r="80">
+        <v>1775</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" ht="15.75" customHeight="1">
       <c r="A80" s="1" t="s">
         <v>106</v>
       </c>
@@ -2796,13 +3127,13 @@
         <v>9</v>
       </c>
       <c r="E80" s="2">
-        <v>5589.0</v>
+        <v>5589</v>
       </c>
       <c r="F80" s="1">
-        <v>1836.0</v>
-      </c>
-    </row>
-    <row r="81">
+        <v>1836</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" ht="15.75" customHeight="1">
       <c r="A81" s="1" t="s">
         <v>107</v>
       </c>
@@ -2816,13 +3147,13 @@
         <v>9</v>
       </c>
       <c r="E81" s="2">
-        <v>29457.0</v>
+        <v>29457</v>
       </c>
       <c r="F81" s="1">
-        <v>1701.0</v>
-      </c>
-    </row>
-    <row r="82">
+        <v>1701</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" ht="15.75" customHeight="1">
       <c r="A82" s="1" t="s">
         <v>108</v>
       </c>
@@ -2836,13 +3167,13 @@
         <v>9</v>
       </c>
       <c r="E82" s="2">
-        <v>11390.0</v>
+        <v>11390</v>
       </c>
       <c r="F82" s="1">
-        <v>1732.0</v>
-      </c>
-    </row>
-    <row r="83">
+        <v>1732</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" ht="15.75" customHeight="1">
       <c r="A83" s="1" t="s">
         <v>109</v>
       </c>
@@ -2856,13 +3187,13 @@
         <v>9</v>
       </c>
       <c r="E83" s="2">
-        <v>3179.0</v>
+        <v>3179</v>
       </c>
       <c r="F83" s="1">
-        <v>1673.0</v>
-      </c>
-    </row>
-    <row r="84">
+        <v>1673</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" ht="15.75" customHeight="1">
       <c r="A84" s="1" t="s">
         <v>110</v>
       </c>
@@ -2876,13 +3207,13 @@
         <v>9</v>
       </c>
       <c r="E84" s="2">
-        <v>15059.0</v>
+        <v>15059</v>
       </c>
       <c r="F84" s="1">
-        <v>1637.0</v>
-      </c>
-    </row>
-    <row r="85">
+        <v>1637</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" ht="15.75" customHeight="1">
       <c r="A85" s="1" t="s">
         <v>111</v>
       </c>
@@ -2896,13 +3227,13 @@
         <v>9</v>
       </c>
       <c r="E85" s="2">
-        <v>13794.0</v>
+        <v>13794</v>
       </c>
       <c r="F85" s="1">
-        <v>1823.0</v>
-      </c>
-    </row>
-    <row r="86">
+        <v>1823</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" ht="15.75" customHeight="1">
       <c r="A86" s="1" t="s">
         <v>112</v>
       </c>
@@ -2916,13 +3247,13 @@
         <v>9</v>
       </c>
       <c r="E86" s="2">
-        <v>2183.0</v>
+        <v>2183</v>
       </c>
       <c r="F86" s="1">
-        <v>1920.0</v>
-      </c>
-    </row>
-    <row r="87">
+        <v>1920</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" ht="15.75" customHeight="1">
       <c r="A87" s="1" t="s">
         <v>113</v>
       </c>
@@ -2936,13 +3267,13 @@
         <v>9</v>
       </c>
       <c r="E87" s="2">
-        <v>15720.0</v>
+        <v>15720</v>
       </c>
       <c r="F87" s="1">
-        <v>1894.0</v>
-      </c>
-    </row>
-    <row r="88">
+        <v>1894</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" ht="15.75" customHeight="1">
       <c r="A88" s="1" t="s">
         <v>114</v>
       </c>
@@ -2956,13 +3287,13 @@
         <v>9</v>
       </c>
       <c r="E88" s="2">
-        <v>4956.0</v>
+        <v>4956</v>
       </c>
       <c r="F88" s="1">
-        <v>1646.0</v>
-      </c>
-    </row>
-    <row r="89">
+        <v>1646</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" ht="15.75" customHeight="1">
       <c r="A89" s="1" t="s">
         <v>115</v>
       </c>
@@ -2976,13 +3307,13 @@
         <v>20</v>
       </c>
       <c r="E89" s="2">
-        <v>16053.0</v>
+        <v>16053</v>
       </c>
       <c r="F89" s="1">
-        <v>1809.0</v>
-      </c>
-    </row>
-    <row r="90">
+        <v>1809</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" ht="15.75" customHeight="1">
       <c r="A90" s="1" t="s">
         <v>116</v>
       </c>
@@ -2996,13 +3327,13 @@
         <v>9</v>
       </c>
       <c r="E90" s="2">
-        <v>23112.0</v>
+        <v>23112</v>
       </c>
       <c r="F90" s="1">
-        <v>1725.0</v>
-      </c>
-    </row>
-    <row r="91">
+        <v>1725</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" ht="15.75" customHeight="1">
       <c r="A91" s="1" t="s">
         <v>117</v>
       </c>
@@ -3016,13 +3347,13 @@
         <v>9</v>
       </c>
       <c r="E91" s="2">
-        <v>4067.0</v>
+        <v>4067</v>
       </c>
       <c r="F91" s="1">
-        <v>1671.0</v>
-      </c>
-    </row>
-    <row r="92">
+        <v>1671</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" ht="15.75" customHeight="1">
       <c r="A92" s="1" t="s">
         <v>118</v>
       </c>
@@ -3036,13 +3367,13 @@
         <v>9</v>
       </c>
       <c r="E92" s="2">
-        <v>1225.0</v>
+        <v>1225</v>
       </c>
       <c r="F92" s="1">
-        <v>1775.0</v>
-      </c>
-    </row>
-    <row r="93">
+        <v>1775</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" ht="15.75" customHeight="1">
       <c r="A93" s="1" t="s">
         <v>119</v>
       </c>
@@ -3056,13 +3387,13 @@
         <v>9</v>
       </c>
       <c r="E93" s="2">
-        <v>1800.0</v>
+        <v>1800</v>
       </c>
       <c r="F93" s="1">
-        <v>1838.0</v>
-      </c>
-    </row>
-    <row r="94">
+        <v>1838</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" ht="15.75" customHeight="1">
       <c r="A94" s="1" t="s">
         <v>23</v>
       </c>
@@ -3076,13 +3407,13 @@
         <v>9</v>
       </c>
       <c r="E94" s="2">
-        <v>3504.0</v>
+        <v>3504</v>
       </c>
       <c r="F94" s="1">
-        <v>1819.0</v>
-      </c>
-    </row>
-    <row r="95">
+        <v>1819</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" ht="15.75" customHeight="1">
       <c r="A95" s="1" t="s">
         <v>120</v>
       </c>
@@ -3096,13 +3427,13 @@
         <v>121</v>
       </c>
       <c r="E95" s="2">
-        <v>41667.0</v>
+        <v>41667</v>
       </c>
       <c r="F95" s="1">
-        <v>1870.0</v>
-      </c>
-    </row>
-    <row r="96">
+        <v>1870</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" ht="15.75" customHeight="1">
       <c r="A96" s="1" t="s">
         <v>122</v>
       </c>
@@ -3116,13 +3447,13 @@
         <v>16</v>
       </c>
       <c r="E96" s="2">
-        <v>15873.0</v>
+        <v>15873</v>
       </c>
       <c r="F96" s="1">
-        <v>1812.0</v>
-      </c>
-    </row>
-    <row r="97">
+        <v>1812</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" ht="15.75" customHeight="1">
       <c r="A97" s="1" t="s">
         <v>123</v>
       </c>
@@ -3136,13 +3467,13 @@
         <v>20</v>
       </c>
       <c r="E97" s="2">
-        <v>88857.0</v>
+        <v>88857</v>
       </c>
       <c r="F97" s="1">
-        <v>1803.0</v>
-      </c>
-    </row>
-    <row r="98">
+        <v>1803</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" ht="15.75" customHeight="1">
       <c r="A98" s="1" t="s">
         <v>124</v>
       </c>
@@ -3156,13 +3487,13 @@
         <v>16</v>
       </c>
       <c r="E98" s="2">
-        <v>31531.0</v>
+        <v>31531</v>
       </c>
       <c r="F98" s="1">
-        <v>1686.0</v>
-      </c>
-    </row>
-    <row r="99">
+        <v>1686</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" ht="15.75" customHeight="1">
       <c r="A99" s="1" t="s">
         <v>125</v>
       </c>
@@ -3176,13 +3507,13 @@
         <v>20</v>
       </c>
       <c r="E99" s="2">
-        <v>40318.0</v>
+        <v>40318</v>
       </c>
       <c r="F99" s="1">
-        <v>1764.0</v>
-      </c>
-    </row>
-    <row r="100">
+        <v>1764</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" ht="15.75" customHeight="1">
       <c r="A100" s="1" t="s">
         <v>126</v>
       </c>
@@ -3196,13 +3527,13 @@
         <v>9</v>
       </c>
       <c r="E100" s="1">
-        <v>752.0</v>
+        <v>752</v>
       </c>
       <c r="F100" s="1">
-        <v>1805.0</v>
-      </c>
-    </row>
-    <row r="101">
+        <v>1805</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" ht="15.75" customHeight="1">
       <c r="A101" s="1" t="s">
         <v>127</v>
       </c>
@@ -3216,13 +3547,13 @@
         <v>9</v>
       </c>
       <c r="E101" s="2">
-        <v>16865.0</v>
+        <v>16865</v>
       </c>
       <c r="F101" s="1">
-        <v>1778.0</v>
-      </c>
-    </row>
-    <row r="102">
+        <v>1778</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" ht="15.75" customHeight="1">
       <c r="A102" s="1" t="s">
         <v>128</v>
       </c>
@@ -3236,13 +3567,13 @@
         <v>16</v>
       </c>
       <c r="E102" s="2">
-        <v>68318.0</v>
+        <v>68318</v>
       </c>
       <c r="F102" s="1">
-        <v>1700.0</v>
-      </c>
-    </row>
-    <row r="103">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" ht="15.75" customHeight="1">
       <c r="A103" s="1" t="s">
         <v>34</v>
       </c>
@@ -3256,13 +3587,13 @@
         <v>129</v>
       </c>
       <c r="E103" s="2">
-        <v>31635.0</v>
+        <v>31635</v>
       </c>
       <c r="F103" s="1">
-        <v>1778.0</v>
-      </c>
-    </row>
-    <row r="104">
+        <v>1778</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" ht="15.75" customHeight="1">
       <c r="A104" s="1" t="s">
         <v>130</v>
       </c>
@@ -3276,13 +3607,13 @@
         <v>9</v>
       </c>
       <c r="E104" s="2">
-        <v>8870.0</v>
+        <v>8870</v>
       </c>
       <c r="F104" s="1">
-        <v>1683.0</v>
-      </c>
-    </row>
-    <row r="105">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" ht="15.75" customHeight="1">
       <c r="A105" s="1" t="s">
         <v>131</v>
       </c>
@@ -3296,13 +3627,13 @@
         <v>20</v>
       </c>
       <c r="E105" s="2">
-        <v>20228.0</v>
+        <v>20228</v>
       </c>
       <c r="F105" s="1">
-        <v>1785.0</v>
-      </c>
-    </row>
-    <row r="106">
+        <v>1785</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" ht="15.75" customHeight="1">
       <c r="A106" s="1" t="s">
         <v>132</v>
       </c>
@@ -3316,13 +3647,13 @@
         <v>9</v>
       </c>
       <c r="E106" s="2">
-        <v>8183.0</v>
+        <v>8183</v>
       </c>
       <c r="F106" s="1">
-        <v>1838.0</v>
-      </c>
-    </row>
-    <row r="107">
+        <v>1838</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" ht="15.75" customHeight="1">
       <c r="A107" s="1" t="s">
         <v>133</v>
       </c>
@@ -3336,13 +3667,13 @@
         <v>9</v>
       </c>
       <c r="E107" s="2">
-        <v>1500.0</v>
+        <v>1500</v>
       </c>
       <c r="F107" s="1">
-        <v>1793.0</v>
-      </c>
-    </row>
-    <row r="108">
+        <v>1793</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" ht="15.75" customHeight="1">
       <c r="A108" s="1" t="s">
         <v>134</v>
       </c>
@@ -3356,13 +3687,13 @@
         <v>20</v>
       </c>
       <c r="E108" s="2">
-        <v>28789.0</v>
+        <v>28789</v>
       </c>
       <c r="F108" s="1">
-        <v>1642.0</v>
-      </c>
-    </row>
-    <row r="109">
+        <v>1642</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" ht="15.75" customHeight="1">
       <c r="A109" s="1" t="s">
         <v>135</v>
       </c>
@@ -3376,13 +3707,13 @@
         <v>9</v>
       </c>
       <c r="E109" s="2">
-        <v>1054.0</v>
+        <v>1054</v>
       </c>
       <c r="F109" s="1">
-        <v>1781.0</v>
-      </c>
-    </row>
-    <row r="110">
+        <v>1781</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" ht="15.75" customHeight="1">
       <c r="A110" s="1" t="s">
         <v>136</v>
       </c>
@@ -3396,13 +3727,13 @@
         <v>9</v>
       </c>
       <c r="E110" s="1">
-        <v>75.0</v>
+        <v>75</v>
       </c>
       <c r="F110" s="1">
-        <v>1864.0</v>
-      </c>
-    </row>
-    <row r="111">
+        <v>1864</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" ht="15.75" customHeight="1">
       <c r="A111" s="1" t="s">
         <v>137</v>
       </c>
@@ -3416,13 +3747,13 @@
         <v>9</v>
       </c>
       <c r="E111" s="2">
-        <v>17765.0</v>
+        <v>17765</v>
       </c>
       <c r="F111" s="1">
-        <v>1735.0</v>
-      </c>
-    </row>
-    <row r="112">
+        <v>1735</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" ht="15.75" customHeight="1">
       <c r="A112" s="1" t="s">
         <v>138</v>
       </c>
@@ -3436,13 +3767,13 @@
         <v>9</v>
       </c>
       <c r="E112" s="2">
-        <v>6240.0</v>
+        <v>6240</v>
       </c>
       <c r="F112" s="1">
-        <v>1768.0</v>
-      </c>
-    </row>
-    <row r="113">
+        <v>1768</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" ht="15.75" customHeight="1">
       <c r="A113" s="1" t="s">
         <v>139</v>
       </c>
@@ -3456,13 +3787,13 @@
         <v>9</v>
       </c>
       <c r="E113" s="2">
-        <v>1566.0</v>
+        <v>1566</v>
       </c>
       <c r="F113" s="1">
-        <v>1775.0</v>
-      </c>
-    </row>
-    <row r="114">
+        <v>1775</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" ht="15.75" customHeight="1">
       <c r="A114" s="1" t="s">
         <v>140</v>
       </c>
@@ -3476,13 +3807,13 @@
         <v>9</v>
       </c>
       <c r="E114" s="2">
-        <v>7104.0</v>
+        <v>7104</v>
       </c>
       <c r="F114" s="1">
-        <v>1761.0</v>
-      </c>
-    </row>
-    <row r="115">
+        <v>1761</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" ht="15.75" customHeight="1">
       <c r="A115" s="1" t="s">
         <v>141</v>
       </c>
@@ -3496,13 +3827,13 @@
         <v>20</v>
       </c>
       <c r="E115" s="2">
-        <v>17456.0</v>
+        <v>17456</v>
       </c>
       <c r="F115" s="1">
-        <v>1775.0</v>
-      </c>
-    </row>
-    <row r="116">
+        <v>1775</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" ht="15.75" customHeight="1">
       <c r="A116" s="1" t="s">
         <v>142</v>
       </c>
@@ -3516,13 +3847,13 @@
         <v>9</v>
       </c>
       <c r="E116" s="2">
-        <v>10646.0</v>
+        <v>10646</v>
       </c>
       <c r="F116" s="1">
-        <v>1655.0</v>
-      </c>
-    </row>
-    <row r="117">
+        <v>1655</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" ht="15.75" customHeight="1">
       <c r="A117" s="1" t="s">
         <v>143</v>
       </c>
@@ -3536,13 +3867,13 @@
         <v>9</v>
       </c>
       <c r="E117" s="2">
-        <v>6459.0</v>
+        <v>6459</v>
       </c>
       <c r="F117" s="1">
-        <v>1850.0</v>
-      </c>
-    </row>
-    <row r="118">
+        <v>1850</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" ht="15.75" customHeight="1">
       <c r="A118" s="1" t="s">
         <v>144</v>
       </c>
@@ -3556,13 +3887,13 @@
         <v>9</v>
       </c>
       <c r="E118" s="2">
-        <v>5250.0</v>
+        <v>5250</v>
       </c>
       <c r="F118" s="1">
-        <v>1661.0</v>
-      </c>
-    </row>
-    <row r="119">
+        <v>1661</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" ht="15.75" customHeight="1">
       <c r="A119" s="1" t="s">
         <v>145</v>
       </c>
@@ -3576,13 +3907,13 @@
         <v>9</v>
       </c>
       <c r="E119" s="2">
-        <v>7518.0</v>
+        <v>7518</v>
       </c>
       <c r="F119" s="1">
-        <v>1734.0</v>
-      </c>
-    </row>
-    <row r="120">
+        <v>1734</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" ht="15.75" customHeight="1">
       <c r="A120" s="1" t="s">
         <v>146</v>
       </c>
@@ -3596,13 +3927,13 @@
         <v>9</v>
       </c>
       <c r="E120" s="2">
-        <v>7764.0</v>
+        <v>7764</v>
       </c>
       <c r="F120" s="1">
-        <v>1793.0</v>
-      </c>
-    </row>
-    <row r="121">
+        <v>1793</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" ht="15.75" customHeight="1">
       <c r="A121" s="1" t="s">
         <v>19</v>
       </c>
@@ -3616,13 +3947,13 @@
         <v>9</v>
       </c>
       <c r="E121" s="2">
-        <v>5139.0</v>
+        <v>5139</v>
       </c>
       <c r="F121" s="1">
-        <v>1878.0</v>
-      </c>
-    </row>
-    <row r="122">
+        <v>1878</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" ht="15.75" customHeight="1">
       <c r="A122" s="1" t="s">
         <v>147</v>
       </c>
@@ -3636,13 +3967,13 @@
         <v>9</v>
       </c>
       <c r="E122" s="1">
-        <v>717.0</v>
+        <v>717</v>
       </c>
       <c r="F122" s="1">
-        <v>1776.0</v>
-      </c>
-    </row>
-    <row r="123">
+        <v>1776</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" ht="15.75" customHeight="1">
       <c r="A123" s="1" t="s">
         <v>148</v>
       </c>
@@ -3656,13 +3987,13 @@
         <v>9</v>
       </c>
       <c r="E123" s="2">
-        <v>13879.0</v>
+        <v>13879</v>
       </c>
       <c r="F123" s="1">
-        <v>1727.0</v>
-      </c>
-    </row>
-    <row r="124">
+        <v>1727</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" ht="15.75" customHeight="1">
       <c r="A124" s="1" t="s">
         <v>149</v>
       </c>
@@ -3676,13 +4007,13 @@
         <v>9</v>
       </c>
       <c r="E124" s="2">
-        <v>10209.0</v>
+        <v>10209</v>
       </c>
       <c r="F124" s="1">
-        <v>1820.0</v>
-      </c>
-    </row>
-    <row r="125">
+        <v>1820</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" ht="15.75" customHeight="1">
       <c r="A125" s="1" t="s">
         <v>150</v>
       </c>
@@ -3696,13 +4027,13 @@
         <v>9</v>
       </c>
       <c r="E125" s="2">
-        <v>2990.0</v>
+        <v>2990</v>
       </c>
       <c r="F125" s="1">
-        <v>1739.0</v>
-      </c>
-    </row>
-    <row r="126">
+        <v>1739</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" ht="15.75" customHeight="1">
       <c r="A126" s="1" t="s">
         <v>151</v>
       </c>
@@ -3716,13 +4047,13 @@
         <v>9</v>
       </c>
       <c r="E126" s="2">
-        <v>6520.0</v>
+        <v>6520</v>
       </c>
       <c r="F126" s="1">
-        <v>1732.0</v>
-      </c>
-    </row>
-    <row r="127">
+        <v>1732</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" ht="15.75" customHeight="1">
       <c r="A127" s="1" t="s">
         <v>152</v>
       </c>
@@ -3736,13 +4067,13 @@
         <v>9</v>
       </c>
       <c r="E127" s="2">
-        <v>12243.0</v>
+        <v>12243</v>
       </c>
       <c r="F127" s="1">
-        <v>1694.0</v>
-      </c>
-    </row>
-    <row r="128">
+        <v>1694</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" ht="15.75" customHeight="1">
       <c r="A128" s="1" t="s">
         <v>153</v>
       </c>
@@ -3756,13 +4087,13 @@
         <v>9</v>
       </c>
       <c r="E128" s="2">
-        <v>3279.0</v>
+        <v>3279</v>
       </c>
       <c r="F128" s="1">
-        <v>1670.0</v>
-      </c>
-    </row>
-    <row r="129">
+        <v>1670</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" ht="15.75" customHeight="1">
       <c r="A129" s="1" t="s">
         <v>154</v>
       </c>
@@ -3776,13 +4107,13 @@
         <v>20</v>
       </c>
       <c r="E129" s="2">
-        <v>60879.0</v>
+        <v>60879</v>
       </c>
       <c r="F129" s="1">
-        <v>1641.0</v>
-      </c>
-    </row>
-    <row r="130">
+        <v>1641</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" ht="15.75" customHeight="1">
       <c r="A130" s="1" t="s">
         <v>155</v>
       </c>
@@ -3796,13 +4127,13 @@
         <v>9</v>
       </c>
       <c r="E130" s="1">
-        <v>337.0</v>
+        <v>337</v>
       </c>
       <c r="F130" s="1">
-        <v>1792.0</v>
-      </c>
-    </row>
-    <row r="131">
+        <v>1792</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" ht="15.75" customHeight="1">
       <c r="A131" s="1" t="s">
         <v>156</v>
       </c>
@@ -3816,13 +4147,13 @@
         <v>9</v>
       </c>
       <c r="E131" s="1">
-        <v>706.0</v>
+        <v>706</v>
       </c>
       <c r="F131" s="1">
-        <v>1785.0</v>
-      </c>
-    </row>
-    <row r="132">
+        <v>1785</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" ht="15.75" customHeight="1">
       <c r="A132" s="1" t="s">
         <v>157</v>
       </c>
@@ -3836,13 +4167,13 @@
         <v>9</v>
       </c>
       <c r="E132" s="2">
-        <v>22157.0</v>
+        <v>22157</v>
       </c>
       <c r="F132" s="1">
-        <v>1635.0</v>
-      </c>
-    </row>
-    <row r="133">
+        <v>1635</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" ht="15.75" customHeight="1">
       <c r="A133" s="1" t="s">
         <v>158</v>
       </c>
@@ -3856,13 +4187,13 @@
         <v>9</v>
       </c>
       <c r="E133" s="2">
-        <v>2032.0</v>
+        <v>2032</v>
       </c>
       <c r="F133" s="1">
-        <v>1804.0</v>
-      </c>
-    </row>
-    <row r="134">
+        <v>1804</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" ht="15.75" customHeight="1">
       <c r="A134" s="1" t="s">
         <v>159</v>
       </c>
@@ -3876,13 +4207,13 @@
         <v>16</v>
       </c>
       <c r="E134" s="2">
-        <v>10791.0</v>
+        <v>10791</v>
       </c>
       <c r="F134" s="1">
-        <v>1872.0</v>
-      </c>
-    </row>
-    <row r="135">
+        <v>1872</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" ht="15.75" customHeight="1">
       <c r="A135" s="1" t="s">
         <v>160</v>
       </c>
@@ -3896,13 +4227,13 @@
         <v>9</v>
       </c>
       <c r="E135" s="2">
-        <v>17346.0</v>
+        <v>17346</v>
       </c>
       <c r="F135" s="1">
-        <v>1741.0</v>
-      </c>
-    </row>
-    <row r="136">
+        <v>1741</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" ht="15.75" customHeight="1">
       <c r="A136" s="1" t="s">
         <v>161</v>
       </c>
@@ -3916,13 +4247,13 @@
         <v>9</v>
       </c>
       <c r="E136" s="2">
-        <v>2481.0</v>
+        <v>2481</v>
       </c>
       <c r="F136" s="1">
-        <v>1835.0</v>
-      </c>
-    </row>
-    <row r="137">
+        <v>1835</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" ht="15.75" customHeight="1">
       <c r="A137" s="1" t="s">
         <v>162</v>
       </c>
@@ -3936,13 +4267,13 @@
         <v>9</v>
       </c>
       <c r="E137" s="2">
-        <v>13547.0</v>
+        <v>13547</v>
       </c>
       <c r="F137" s="1">
-        <v>1724.0</v>
-      </c>
-    </row>
-    <row r="138">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" ht="15.75" customHeight="1">
       <c r="A138" s="1" t="s">
         <v>163</v>
       </c>
@@ -3956,13 +4287,13 @@
         <v>20</v>
       </c>
       <c r="E138" s="2">
-        <v>39880.0</v>
+        <v>39880</v>
       </c>
       <c r="F138" s="1">
-        <v>1850.0</v>
-      </c>
-    </row>
-    <row r="139">
+        <v>1850</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" ht="15.75" customHeight="1">
       <c r="A139" s="1" t="s">
         <v>164</v>
       </c>
@@ -3976,13 +4307,13 @@
         <v>9</v>
       </c>
       <c r="E139" s="2">
-        <v>5911.0</v>
+        <v>5911</v>
       </c>
       <c r="F139" s="1">
-        <v>1886.0</v>
-      </c>
-    </row>
-    <row r="140">
+        <v>1886</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" ht="15.75" customHeight="1">
       <c r="A140" s="1" t="s">
         <v>165</v>
       </c>
@@ -3996,13 +4327,13 @@
         <v>9</v>
       </c>
       <c r="E140" s="2">
-        <v>14925.0</v>
+        <v>14925</v>
       </c>
       <c r="F140" s="1">
-        <v>1715.0</v>
-      </c>
-    </row>
-    <row r="141">
+        <v>1715</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" ht="15.75" customHeight="1">
       <c r="A141" s="1" t="s">
         <v>166</v>
       </c>
@@ -4016,13 +4347,13 @@
         <v>9</v>
       </c>
       <c r="E141" s="2">
-        <v>4382.0</v>
+        <v>4382</v>
       </c>
       <c r="F141" s="1">
-        <v>1775.0</v>
-      </c>
-    </row>
-    <row r="142">
+        <v>1775</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" ht="15.75" customHeight="1">
       <c r="A142" s="1" t="s">
         <v>167</v>
       </c>
@@ -4036,13 +4367,13 @@
         <v>9</v>
       </c>
       <c r="E142" s="2">
-        <v>19063.0</v>
+        <v>19063</v>
       </c>
       <c r="F142" s="1">
-        <v>1866.0</v>
-      </c>
-    </row>
-    <row r="143">
+        <v>1866</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" ht="15.75" customHeight="1">
       <c r="A143" s="1" t="s">
         <v>168</v>
       </c>
@@ -4056,13 +4387,13 @@
         <v>9</v>
       </c>
       <c r="E143" s="2">
-        <v>10293.0</v>
+        <v>10293</v>
       </c>
       <c r="F143" s="1">
-        <v>1644.0</v>
-      </c>
-    </row>
-    <row r="144">
+        <v>1644</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" ht="15.75" customHeight="1">
       <c r="A144" s="1" t="s">
         <v>169</v>
       </c>
@@ -4076,13 +4407,13 @@
         <v>9</v>
       </c>
       <c r="E144" s="2">
-        <v>2180.0</v>
+        <v>2180</v>
       </c>
       <c r="F144" s="1">
-        <v>1775.0</v>
-      </c>
-    </row>
-    <row r="145">
+        <v>1775</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" ht="15.75" customHeight="1">
       <c r="A145" s="1" t="s">
         <v>170</v>
       </c>
@@ -4096,13 +4427,13 @@
         <v>9</v>
       </c>
       <c r="E145" s="2">
-        <v>13175.0</v>
+        <v>13175</v>
       </c>
       <c r="F145" s="1">
-        <v>1634.0</v>
-      </c>
-    </row>
-    <row r="146">
+        <v>1634</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" ht="15.75" customHeight="1">
       <c r="A146" s="1" t="s">
         <v>171</v>
       </c>
@@ -4116,13 +4447,13 @@
         <v>9</v>
       </c>
       <c r="E146" s="2">
-        <v>12629.0</v>
+        <v>12629</v>
       </c>
       <c r="F146" s="1">
-        <v>1726.0</v>
-      </c>
-    </row>
-    <row r="147">
+        <v>1726</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" ht="15.75" customHeight="1">
       <c r="A147" s="1" t="s">
         <v>172</v>
       </c>
@@ -4136,13 +4467,13 @@
         <v>9</v>
       </c>
       <c r="E147" s="2">
-        <v>10602.0</v>
+        <v>10602</v>
       </c>
       <c r="F147" s="1">
-        <v>1853.0</v>
-      </c>
-    </row>
-    <row r="148">
+        <v>1853</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" ht="15.75" customHeight="1">
       <c r="A148" s="1" t="s">
         <v>173</v>
       </c>
@@ -4156,13 +4487,13 @@
         <v>9</v>
       </c>
       <c r="E148" s="2">
-        <v>8055.0</v>
+        <v>8055</v>
       </c>
       <c r="F148" s="1">
-        <v>1653.0</v>
-      </c>
-    </row>
-    <row r="149">
+        <v>1653</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" ht="15.75" customHeight="1">
       <c r="A149" s="1" t="s">
         <v>174</v>
       </c>
@@ -4176,13 +4507,13 @@
         <v>9</v>
       </c>
       <c r="E149" s="2">
-        <v>3091.0</v>
+        <v>3091</v>
       </c>
       <c r="F149" s="1">
-        <v>1765.0</v>
-      </c>
-    </row>
-    <row r="150">
+        <v>1765</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" ht="15.75" customHeight="1">
       <c r="A150" s="1" t="s">
         <v>175</v>
       </c>
@@ -4196,13 +4527,13 @@
         <v>20</v>
       </c>
       <c r="E150" s="2">
-        <v>76377.0</v>
+        <v>76377</v>
       </c>
       <c r="F150" s="1">
-        <v>1847.0</v>
-      </c>
-    </row>
-    <row r="151">
+        <v>1847</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" ht="15.75" customHeight="1">
       <c r="A151" s="1" t="s">
         <v>176</v>
       </c>
@@ -4216,13 +4547,13 @@
         <v>16</v>
       </c>
       <c r="E151" s="2">
-        <v>5943.0</v>
+        <v>5943</v>
       </c>
       <c r="F151" s="1">
-        <v>1777.0</v>
-      </c>
-    </row>
-    <row r="152">
+        <v>1777</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" ht="15.75" customHeight="1">
       <c r="A152" s="1" t="s">
         <v>177</v>
       </c>
@@ -4236,13 +4567,13 @@
         <v>9</v>
       </c>
       <c r="E152" s="2">
-        <v>10970.0</v>
+        <v>10970</v>
       </c>
       <c r="F152" s="1">
-        <v>1714.0</v>
-      </c>
-    </row>
-    <row r="153">
+        <v>1714</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" ht="15.75" customHeight="1">
       <c r="A153" s="1" t="s">
         <v>178</v>
       </c>
@@ -4256,13 +4587,13 @@
         <v>9</v>
       </c>
       <c r="E153" s="2">
-        <v>5025.0</v>
+        <v>5025</v>
       </c>
       <c r="F153" s="1">
-        <v>1775.0</v>
-      </c>
-    </row>
-    <row r="154">
+        <v>1775</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" ht="15.75" customHeight="1">
       <c r="A154" s="1" t="s">
         <v>179</v>
       </c>
@@ -4276,13 +4607,13 @@
         <v>20</v>
       </c>
       <c r="E154" s="2">
-        <v>40759.0</v>
+        <v>40759</v>
       </c>
       <c r="F154" s="1">
-        <v>1740.0</v>
-      </c>
-    </row>
-    <row r="155">
+        <v>1740</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" ht="15.75" customHeight="1">
       <c r="A155" s="1" t="s">
         <v>180</v>
       </c>
@@ -4296,13 +4627,13 @@
         <v>9</v>
       </c>
       <c r="E155" s="2">
-        <v>1851.0</v>
+        <v>1851</v>
       </c>
       <c r="F155" s="1">
-        <v>1774.0</v>
-      </c>
-    </row>
-    <row r="156">
+        <v>1774</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" ht="15.75" customHeight="1">
       <c r="A156" s="1" t="s">
         <v>181</v>
       </c>
@@ -4316,13 +4647,13 @@
         <v>16</v>
       </c>
       <c r="E156" s="2">
-        <v>31394.0</v>
+        <v>31394</v>
       </c>
       <c r="F156" s="1">
-        <v>1713.0</v>
-      </c>
-    </row>
-    <row r="157">
+        <v>1713</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" ht="15.75" customHeight="1">
       <c r="A157" s="1" t="s">
         <v>182</v>
       </c>
@@ -4336,13 +4667,13 @@
         <v>9</v>
       </c>
       <c r="E157" s="1">
-        <v>711.0</v>
+        <v>711</v>
       </c>
       <c r="F157" s="1">
-        <v>1809.0</v>
-      </c>
-    </row>
-    <row r="158">
+        <v>1809</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" ht="15.75" customHeight="1">
       <c r="A158" s="1" t="s">
         <v>183</v>
       </c>
@@ -4356,13 +4687,13 @@
         <v>9</v>
       </c>
       <c r="E158" s="2">
-        <v>6362.0</v>
+        <v>6362</v>
       </c>
       <c r="F158" s="1">
-        <v>1754.0</v>
-      </c>
-    </row>
-    <row r="159">
+        <v>1754</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" ht="15.75" customHeight="1">
       <c r="A159" s="1" t="s">
         <v>184</v>
       </c>
@@ -4376,13 +4707,13 @@
         <v>9</v>
       </c>
       <c r="E159" s="2">
-        <v>8924.0</v>
+        <v>8924</v>
       </c>
       <c r="F159" s="1">
-        <v>1715.0</v>
-      </c>
-    </row>
-    <row r="160">
+        <v>1715</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" ht="15.75" customHeight="1">
       <c r="A160" s="1" t="s">
         <v>185</v>
       </c>
@@ -4396,13 +4727,13 @@
         <v>9</v>
       </c>
       <c r="E160" s="2">
-        <v>15784.0</v>
+        <v>15784</v>
       </c>
       <c r="F160" s="1">
-        <v>1783.0</v>
-      </c>
-    </row>
-    <row r="161">
+        <v>1783</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" ht="15.75" customHeight="1">
       <c r="A161" s="1" t="s">
         <v>186</v>
       </c>
@@ -4419,10 +4750,10 @@
         <v>187</v>
       </c>
       <c r="F161" s="1">
-        <v>1826.0</v>
-      </c>
-    </row>
-    <row r="162">
+        <v>1826</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" ht="15.75" customHeight="1">
       <c r="A162" s="1" t="s">
         <v>188</v>
       </c>
@@ -4436,13 +4767,13 @@
         <v>16</v>
       </c>
       <c r="E162" s="2">
-        <v>21103.0</v>
+        <v>21103</v>
       </c>
       <c r="F162" s="1">
-        <v>1775.0</v>
-      </c>
-    </row>
-    <row r="163">
+        <v>1775</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" ht="15.75" customHeight="1">
       <c r="A163" s="1" t="s">
         <v>189</v>
       </c>
@@ -4456,13 +4787,13 @@
         <v>9</v>
       </c>
       <c r="E163" s="2">
-        <v>10086.0</v>
+        <v>10086</v>
       </c>
       <c r="F163" s="1">
-        <v>1728.0</v>
-      </c>
-    </row>
-    <row r="164">
+        <v>1728</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" ht="15.75" customHeight="1">
       <c r="A164" s="1" t="s">
         <v>190</v>
       </c>
@@ -4476,13 +4807,13 @@
         <v>20</v>
       </c>
       <c r="E164" s="2">
-        <v>90329.0</v>
+        <v>90329</v>
       </c>
       <c r="F164" s="1">
-        <v>1629.0</v>
-      </c>
-    </row>
-    <row r="165">
+        <v>1629</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" ht="15.75" customHeight="1">
       <c r="A165" s="1" t="s">
         <v>191</v>
       </c>
@@ -4496,13 +4827,13 @@
         <v>9</v>
       </c>
       <c r="E165" s="2">
-        <v>11596.0</v>
+        <v>11596</v>
       </c>
       <c r="F165" s="1">
-        <v>1814.0</v>
-      </c>
-    </row>
-    <row r="166">
+        <v>1814</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" ht="15.75" customHeight="1">
       <c r="A166" s="1" t="s">
         <v>192</v>
       </c>
@@ -4516,13 +4847,13 @@
         <v>20</v>
       </c>
       <c r="E166" s="2">
-        <v>59450.0</v>
+        <v>59450</v>
       </c>
       <c r="F166" s="1">
-        <v>1649.0</v>
-      </c>
-    </row>
-    <row r="167">
+        <v>1649</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" ht="15.75" customHeight="1">
       <c r="A167" s="1" t="s">
         <v>193</v>
       </c>
@@ -4536,13 +4867,13 @@
         <v>9</v>
       </c>
       <c r="E167" s="2">
-        <v>5136.0</v>
+        <v>5136</v>
       </c>
       <c r="F167" s="1">
-        <v>1645.0</v>
-      </c>
-    </row>
-    <row r="168">
+        <v>1645</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" ht="15.75" customHeight="1">
       <c r="A168" s="1" t="s">
         <v>194</v>
       </c>
@@ -4556,13 +4887,13 @@
         <v>9</v>
       </c>
       <c r="E168" s="2">
-        <v>23184.0</v>
+        <v>23184</v>
       </c>
       <c r="F168" s="1">
-        <v>1775.0</v>
-      </c>
-    </row>
-    <row r="169">
+        <v>1775</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" ht="15.75" customHeight="1">
       <c r="A169" s="1" t="s">
         <v>195</v>
       </c>
@@ -4576,13 +4907,13 @@
         <v>9</v>
       </c>
       <c r="E169" s="2">
-        <v>19808.0</v>
+        <v>19808</v>
       </c>
       <c r="F169" s="1">
-        <v>1649.0</v>
-      </c>
-    </row>
-    <row r="170">
+        <v>1649</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" ht="15.75" customHeight="1">
       <c r="A170" s="1" t="s">
         <v>196</v>
       </c>
@@ -4596,13 +4927,13 @@
         <v>9</v>
       </c>
       <c r="E170" s="2">
-        <v>4907.0</v>
+        <v>4907</v>
       </c>
       <c r="F170" s="1">
-        <v>1852.0</v>
-      </c>
-    </row>
-    <row r="171">
+        <v>1852</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" ht="15.75" customHeight="1">
       <c r="A171" s="1" t="s">
         <v>197</v>
       </c>
@@ -4616,13 +4947,13 @@
         <v>20</v>
       </c>
       <c r="E171" s="2">
-        <v>38499.0</v>
+        <v>38499</v>
       </c>
       <c r="F171" s="1">
-        <v>1660.0</v>
-      </c>
-    </row>
-    <row r="172">
+        <v>1660</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" ht="15.75" customHeight="1">
       <c r="A172" s="1" t="s">
         <v>198</v>
       </c>
@@ -4636,13 +4967,13 @@
         <v>9</v>
       </c>
       <c r="E172" s="2">
-        <v>25132.0</v>
+        <v>25132</v>
       </c>
       <c r="F172" s="1">
-        <v>1640.0</v>
-      </c>
-    </row>
-    <row r="173">
+        <v>1640</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" ht="15.75" customHeight="1">
       <c r="A173" s="1" t="s">
         <v>199</v>
       </c>
@@ -4656,13 +4987,13 @@
         <v>9</v>
       </c>
       <c r="E173" s="2">
-        <v>14006.0</v>
+        <v>14006</v>
       </c>
       <c r="F173" s="1">
-        <v>1870.0</v>
-      </c>
-    </row>
-    <row r="174">
+        <v>1870</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" ht="15.75" customHeight="1">
       <c r="A174" s="1" t="s">
         <v>200</v>
       </c>
@@ -4676,13 +5007,13 @@
         <v>9</v>
       </c>
       <c r="E174" s="2">
-        <v>6045.0</v>
+        <v>6045</v>
       </c>
       <c r="F174" s="1">
-        <v>1857.0</v>
-      </c>
-    </row>
-    <row r="175">
+        <v>1857</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" ht="15.75" customHeight="1">
       <c r="A175" s="1" t="s">
         <v>201</v>
       </c>
@@ -4696,13 +5027,13 @@
         <v>9</v>
       </c>
       <c r="E175" s="2">
-        <v>10106.0</v>
+        <v>10106</v>
       </c>
       <c r="F175" s="1">
-        <v>1871.0</v>
-      </c>
-    </row>
-    <row r="176">
+        <v>1871</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" ht="15.75" customHeight="1">
       <c r="A176" s="1" t="s">
         <v>202</v>
       </c>
@@ -4716,13 +5047,13 @@
         <v>9</v>
       </c>
       <c r="E176" s="2">
-        <v>12024.0</v>
+        <v>12024</v>
       </c>
       <c r="F176" s="1">
-        <v>1651.0</v>
-      </c>
-    </row>
-    <row r="177">
+        <v>1651</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" ht="15.75" customHeight="1">
       <c r="A177" s="1" t="s">
         <v>203</v>
       </c>
@@ -4736,13 +5067,13 @@
         <v>20</v>
       </c>
       <c r="E177" s="2">
-        <v>56173.0</v>
+        <v>56173</v>
       </c>
       <c r="F177" s="1">
-        <v>1630.0</v>
-      </c>
-    </row>
-    <row r="178">
+        <v>1630</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" ht="15.75" customHeight="1">
       <c r="A178" s="1" t="s">
         <v>204</v>
       </c>
@@ -4756,13 +5087,13 @@
         <v>9</v>
       </c>
       <c r="E178" s="2">
-        <v>12752.0</v>
+        <v>12752</v>
       </c>
       <c r="F178" s="1">
-        <v>1713.0</v>
-      </c>
-    </row>
-    <row r="179">
+        <v>1713</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" ht="15.75" customHeight="1">
       <c r="A179" s="1" t="s">
         <v>205</v>
       </c>
@@ -4776,13 +5107,13 @@
         <v>89</v>
       </c>
       <c r="E179" s="2">
-        <v>26983.0</v>
+        <v>26983</v>
       </c>
       <c r="F179" s="1">
-        <v>1850.0</v>
-      </c>
-    </row>
-    <row r="180">
+        <v>1850</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" ht="15.75" customHeight="1">
       <c r="A180" s="1" t="s">
         <v>206</v>
       </c>
@@ -4796,13 +5127,13 @@
         <v>9</v>
       </c>
       <c r="E180" s="2">
-        <v>5839.0</v>
+        <v>5839</v>
       </c>
       <c r="F180" s="1">
-        <v>1667.0</v>
-      </c>
-    </row>
-    <row r="181">
+        <v>1667</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" ht="15.75" customHeight="1">
       <c r="A181" s="1" t="s">
         <v>207</v>
       </c>
@@ -4816,13 +5147,13 @@
         <v>9</v>
       </c>
       <c r="E181" s="2">
-        <v>6338.0</v>
+        <v>6338</v>
       </c>
       <c r="F181" s="1">
-        <v>1876.0</v>
-      </c>
-    </row>
-    <row r="182">
+        <v>1876</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" ht="15.75" customHeight="1">
       <c r="A182" s="1" t="s">
         <v>208</v>
       </c>
@@ -4836,13 +5167,13 @@
         <v>20</v>
       </c>
       <c r="E182" s="2">
-        <v>47255.0</v>
+        <v>47255</v>
       </c>
       <c r="F182" s="1">
-        <v>1725.0</v>
-      </c>
-    </row>
-    <row r="183">
+        <v>1725</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" ht="15.75" customHeight="1">
       <c r="A183" s="1" t="s">
         <v>209</v>
       </c>
@@ -4856,13 +5187,13 @@
         <v>9</v>
       </c>
       <c r="E183" s="2">
-        <v>23116.0</v>
+        <v>23116</v>
       </c>
       <c r="F183" s="1">
-        <v>1669.0</v>
-      </c>
-    </row>
-    <row r="184">
+        <v>1669</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" ht="15.75" customHeight="1">
       <c r="A184" s="1" t="s">
         <v>210</v>
       </c>
@@ -4876,13 +5207,13 @@
         <v>9</v>
       </c>
       <c r="E184" s="1">
-        <v>521.0</v>
+        <v>521</v>
       </c>
       <c r="F184" s="1">
-        <v>1783.0</v>
-      </c>
-    </row>
-    <row r="185">
+        <v>1783</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" ht="15.75" customHeight="1">
       <c r="A185" s="1" t="s">
         <v>211</v>
       </c>
@@ -4896,13 +5227,13 @@
         <v>9</v>
       </c>
       <c r="E185" s="2">
-        <v>8987.0</v>
+        <v>8987</v>
       </c>
       <c r="F185" s="1">
-        <v>1728.0</v>
-      </c>
-    </row>
-    <row r="186">
+        <v>1728</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" ht="15.75" customHeight="1">
       <c r="A186" s="1" t="s">
         <v>212</v>
       </c>
@@ -4916,13 +5247,13 @@
         <v>16</v>
       </c>
       <c r="E186" s="2">
-        <v>27999.0</v>
+        <v>27999</v>
       </c>
       <c r="F186" s="1">
-        <v>1780.0</v>
-      </c>
-    </row>
-    <row r="187">
+        <v>1780</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" ht="15.75" customHeight="1">
       <c r="A187" s="1" t="s">
         <v>213</v>
       </c>
@@ -4936,13 +5267,13 @@
         <v>9</v>
       </c>
       <c r="E187" s="2">
-        <v>13261.0</v>
+        <v>13261</v>
       </c>
       <c r="F187" s="1">
-        <v>1813.0</v>
-      </c>
-    </row>
-    <row r="188">
+        <v>1813</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" ht="15.75" customHeight="1">
       <c r="A188" s="1" t="s">
         <v>214</v>
       </c>
@@ -4956,13 +5287,13 @@
         <v>9</v>
       </c>
       <c r="E188" s="2">
-        <v>7891.0</v>
+        <v>7891</v>
       </c>
       <c r="F188" s="1">
-        <v>1885.0</v>
-      </c>
-    </row>
-    <row r="189">
+        <v>1885</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" ht="15.75" customHeight="1">
       <c r="A189" s="1" t="s">
         <v>215</v>
       </c>
@@ -4976,13 +5307,13 @@
         <v>9</v>
       </c>
       <c r="E189" s="2">
-        <v>3190.0</v>
+        <v>3190</v>
       </c>
       <c r="F189" s="1">
-        <v>1916.0</v>
-      </c>
-    </row>
-    <row r="190">
+        <v>1916</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" ht="15.75" customHeight="1">
       <c r="A190" s="1" t="s">
         <v>216</v>
       </c>
@@ -4996,13 +5327,13 @@
         <v>16</v>
       </c>
       <c r="E190" s="2">
-        <v>27003.0</v>
+        <v>27003</v>
       </c>
       <c r="F190" s="1">
-        <v>1662.0</v>
-      </c>
-    </row>
-    <row r="191">
+        <v>1662</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" ht="15.75" customHeight="1">
       <c r="A191" s="1" t="s">
         <v>217</v>
       </c>
@@ -5016,13 +5347,13 @@
         <v>9</v>
       </c>
       <c r="E191" s="1">
-        <v>121.0</v>
+        <v>121</v>
       </c>
       <c r="F191" s="1">
-        <v>1822.0</v>
-      </c>
-    </row>
-    <row r="192">
+        <v>1822</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" ht="15.75" customHeight="1">
       <c r="A192" s="1" t="s">
         <v>218</v>
       </c>
@@ -5036,13 +5367,13 @@
         <v>9</v>
       </c>
       <c r="E192" s="2">
-        <v>8560.0</v>
+        <v>8560</v>
       </c>
       <c r="F192" s="1">
-        <v>1775.0</v>
-      </c>
-    </row>
-    <row r="193">
+        <v>1775</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" ht="15.75" customHeight="1">
       <c r="A193" s="1" t="s">
         <v>219</v>
       </c>
@@ -5056,13 +5387,13 @@
         <v>16</v>
       </c>
       <c r="E193" s="2">
-        <v>8437.0</v>
+        <v>8437</v>
       </c>
       <c r="F193" s="1">
-        <v>1775.0</v>
-      </c>
-    </row>
-    <row r="194">
+        <v>1775</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" ht="15.75" customHeight="1">
       <c r="A194" s="1" t="s">
         <v>220</v>
       </c>
@@ -5076,13 +5407,13 @@
         <v>9</v>
       </c>
       <c r="E194" s="1">
-        <v>961.0</v>
+        <v>961</v>
       </c>
       <c r="F194" s="1">
-        <v>1847.0</v>
-      </c>
-    </row>
-    <row r="195">
+        <v>1847</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" ht="15.75" customHeight="1">
       <c r="A195" s="1" t="s">
         <v>221</v>
       </c>
@@ -5096,13 +5427,13 @@
         <v>9</v>
       </c>
       <c r="E195" s="1">
-        <v>838.0</v>
+        <v>838</v>
       </c>
       <c r="F195" s="1">
-        <v>1780.0</v>
-      </c>
-    </row>
-    <row r="196">
+        <v>1780</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" ht="15.75" customHeight="1">
       <c r="A196" s="1" t="s">
         <v>222</v>
       </c>
@@ -5116,13 +5447,13 @@
         <v>9</v>
       </c>
       <c r="E196" s="1">
-        <v>167.0</v>
+        <v>167</v>
       </c>
       <c r="F196" s="1">
-        <v>1779.0</v>
-      </c>
-    </row>
-    <row r="197">
+        <v>1779</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" ht="15.75" customHeight="1">
       <c r="A197" s="1" t="s">
         <v>223</v>
       </c>
@@ -5136,13 +5467,13 @@
         <v>9</v>
       </c>
       <c r="E197" s="2">
-        <v>3410.0</v>
+        <v>3410</v>
       </c>
       <c r="F197" s="1">
-        <v>1853.0</v>
-      </c>
-    </row>
-    <row r="198">
+        <v>1853</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" ht="15.75" customHeight="1">
       <c r="A198" s="1" t="s">
         <v>224</v>
       </c>
@@ -5156,13 +5487,13 @@
         <v>9</v>
       </c>
       <c r="E198" s="2">
-        <v>10172.0</v>
+        <v>10172</v>
       </c>
       <c r="F198" s="1">
-        <v>1671.0</v>
-      </c>
-    </row>
-    <row r="199">
+        <v>1671</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" ht="15.75" customHeight="1">
       <c r="A199" s="1" t="s">
         <v>225</v>
       </c>
@@ -5176,13 +5507,13 @@
         <v>16</v>
       </c>
       <c r="E199" s="2">
-        <v>33006.0</v>
+        <v>33006</v>
       </c>
       <c r="F199" s="1">
-        <v>1781.0</v>
-      </c>
-    </row>
-    <row r="200">
+        <v>1781</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" ht="15.75" customHeight="1">
       <c r="A200" s="1" t="s">
         <v>226</v>
       </c>
@@ -5196,13 +5527,13 @@
         <v>16</v>
       </c>
       <c r="E200" s="2">
-        <v>28886.0</v>
+        <v>28886</v>
       </c>
       <c r="F200" s="1">
-        <v>1711.0</v>
-      </c>
-    </row>
-    <row r="201">
+        <v>1711</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" ht="15.75" customHeight="1">
       <c r="A201" s="1" t="s">
         <v>227</v>
       </c>
@@ -5216,13 +5547,13 @@
         <v>9</v>
       </c>
       <c r="E201" s="1">
-        <v>228.0</v>
+        <v>228</v>
       </c>
       <c r="F201" s="1">
-        <v>1835.0</v>
-      </c>
-    </row>
-    <row r="202">
+        <v>1835</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" ht="15.75" customHeight="1">
       <c r="A202" s="1" t="s">
         <v>228</v>
       </c>
@@ -5236,13 +5567,13 @@
         <v>20</v>
       </c>
       <c r="E202" s="2">
-        <v>95072.0</v>
+        <v>95072</v>
       </c>
       <c r="F202" s="1">
-        <v>1787.0</v>
-      </c>
-    </row>
-    <row r="203">
+        <v>1787</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" ht="15.75" customHeight="1">
       <c r="A203" s="1" t="s">
         <v>229</v>
       </c>
@@ -5256,13 +5587,13 @@
         <v>9</v>
       </c>
       <c r="E203" s="1">
-        <v>999.0</v>
+        <v>999</v>
       </c>
       <c r="F203" s="1">
-        <v>1775.0</v>
-      </c>
-    </row>
-    <row r="204">
+        <v>1775</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" ht="15.75" customHeight="1">
       <c r="A204" s="1" t="s">
         <v>230</v>
       </c>
@@ -5276,13 +5607,13 @@
         <v>9</v>
       </c>
       <c r="E204" s="2">
-        <v>1509.0</v>
+        <v>1509</v>
       </c>
       <c r="F204" s="1">
-        <v>1775.0</v>
-      </c>
-    </row>
-    <row r="205">
+        <v>1775</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" ht="15.75" customHeight="1">
       <c r="A205" s="1" t="s">
         <v>231</v>
       </c>
@@ -5296,13 +5627,13 @@
         <v>9</v>
       </c>
       <c r="E205" s="1">
-        <v>990.0</v>
+        <v>990</v>
       </c>
       <c r="F205" s="1">
-        <v>1775.0</v>
-      </c>
-    </row>
-    <row r="206">
+        <v>1775</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" ht="15.75" customHeight="1">
       <c r="A206" s="1" t="s">
         <v>232</v>
       </c>
@@ -5316,13 +5647,13 @@
         <v>9</v>
       </c>
       <c r="E206" s="2">
-        <v>6666.0</v>
+        <v>6666</v>
       </c>
       <c r="F206" s="1">
-        <v>1635.0</v>
-      </c>
-    </row>
-    <row r="207">
+        <v>1635</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" ht="15.75" customHeight="1">
       <c r="A207" s="1" t="s">
         <v>233</v>
       </c>
@@ -5336,13 +5667,13 @@
         <v>20</v>
       </c>
       <c r="E207" s="2">
-        <v>17416.0</v>
+        <v>17416</v>
       </c>
       <c r="F207" s="1">
-        <v>1764.0</v>
-      </c>
-    </row>
-    <row r="208">
+        <v>1764</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" ht="15.75" customHeight="1">
       <c r="A208" s="1" t="s">
         <v>234</v>
       </c>
@@ -5356,13 +5687,13 @@
         <v>89</v>
       </c>
       <c r="E208" s="2">
-        <v>85146.0</v>
+        <v>85146</v>
       </c>
       <c r="F208" s="1">
-        <v>1688.0</v>
-      </c>
-    </row>
-    <row r="209">
+        <v>1688</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" ht="15.75" customHeight="1">
       <c r="A209" s="1" t="s">
         <v>40</v>
       </c>
@@ -5376,13 +5707,13 @@
         <v>9</v>
       </c>
       <c r="E209" s="2">
-        <v>11227.0</v>
+        <v>11227</v>
       </c>
       <c r="F209" s="1">
-        <v>1870.0</v>
-      </c>
-    </row>
-    <row r="210">
+        <v>1870</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" ht="15.75" customHeight="1">
       <c r="A210" s="1" t="s">
         <v>235</v>
       </c>
@@ -5396,13 +5727,13 @@
         <v>20</v>
       </c>
       <c r="E210" s="2">
-        <v>13708.0</v>
+        <v>13708</v>
       </c>
       <c r="F210" s="1">
-        <v>1878.0</v>
-      </c>
-    </row>
-    <row r="211">
+        <v>1878</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" ht="15.75" customHeight="1">
       <c r="A211" s="1" t="s">
         <v>236</v>
       </c>
@@ -5416,15 +5747,15 @@
         <v>9</v>
       </c>
       <c r="E211" s="2">
-        <v>28352.0</v>
+        <v>28352</v>
       </c>
       <c r="F211" s="1">
-        <v>1855.0</v>
-      </c>
-    </row>
-    <row r="212">
+        <v>1855</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" ht="15.75" customHeight="1">
       <c r="A212" s="1" t="s">
-        <v>237</v>
+        <v>377</v>
       </c>
       <c r="B212" s="1" t="s">
         <v>7</v>
@@ -5436,15 +5767,15 @@
         <v>16</v>
       </c>
       <c r="E212" s="2">
-        <v>28712.0</v>
+        <v>28712</v>
       </c>
       <c r="F212" s="1">
-        <v>1887.0</v>
-      </c>
-    </row>
-    <row r="213">
+        <v>1887</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" ht="15.75" customHeight="1">
       <c r="A213" s="1" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B213" s="1" t="s">
         <v>7</v>
@@ -5456,15 +5787,15 @@
         <v>9</v>
       </c>
       <c r="E213" s="2">
-        <v>4680.0</v>
+        <v>4680</v>
       </c>
       <c r="F213" s="1">
-        <v>1812.0</v>
-      </c>
-    </row>
-    <row r="214">
+        <v>1812</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" ht="15.75" customHeight="1">
       <c r="A214" s="1" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B214" s="1" t="s">
         <v>7</v>
@@ -5476,15 +5807,15 @@
         <v>9</v>
       </c>
       <c r="E214" s="2">
-        <v>14892.0</v>
+        <v>14892</v>
       </c>
       <c r="F214" s="1">
-        <v>1853.0</v>
-      </c>
-    </row>
-    <row r="215">
+        <v>1853</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" ht="15.75" customHeight="1">
       <c r="A215" s="1" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B215" s="1" t="s">
         <v>18</v>
@@ -5496,15 +5827,15 @@
         <v>20</v>
       </c>
       <c r="E215" s="2">
-        <v>28549.0</v>
+        <v>28549</v>
       </c>
       <c r="F215" s="1">
-        <v>1656.0</v>
-      </c>
-    </row>
-    <row r="216">
+        <v>1656</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" ht="15.75" customHeight="1">
       <c r="A216" s="1" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B216" s="1" t="s">
         <v>7</v>
@@ -5516,15 +5847,15 @@
         <v>9</v>
       </c>
       <c r="E216" s="2">
-        <v>14155.0</v>
+        <v>14155</v>
       </c>
       <c r="F216" s="1">
-        <v>1775.0</v>
-      </c>
-    </row>
-    <row r="217">
+        <v>1775</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" ht="15.75" customHeight="1">
       <c r="A217" s="1" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B217" s="1" t="s">
         <v>7</v>
@@ -5536,15 +5867,15 @@
         <v>9</v>
       </c>
       <c r="E217" s="2">
-        <v>15707.0</v>
+        <v>15707</v>
       </c>
       <c r="F217" s="1">
-        <v>1775.0</v>
-      </c>
-    </row>
-    <row r="218">
+        <v>1775</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" ht="15.75" customHeight="1">
       <c r="A218" s="1" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B218" s="1" t="s">
         <v>7</v>
@@ -5556,15 +5887,15 @@
         <v>9</v>
       </c>
       <c r="E218" s="2">
-        <v>3032.0</v>
+        <v>3032</v>
       </c>
       <c r="F218" s="1">
-        <v>1723.0</v>
-      </c>
-    </row>
-    <row r="219">
+        <v>1723</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" ht="15.75" customHeight="1">
       <c r="A219" s="1" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B219" s="1" t="s">
         <v>7</v>
@@ -5576,15 +5907,15 @@
         <v>9</v>
       </c>
       <c r="E219" s="2">
-        <v>19031.0</v>
+        <v>19031</v>
       </c>
       <c r="F219" s="1">
-        <v>1711.0</v>
-      </c>
-    </row>
-    <row r="220">
+        <v>1711</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" ht="15.75" customHeight="1">
       <c r="A220" s="1" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B220" s="1" t="s">
         <v>7</v>
@@ -5596,15 +5927,15 @@
         <v>9</v>
       </c>
       <c r="E220" s="2">
-        <v>10506.0</v>
+        <v>10506</v>
       </c>
       <c r="F220" s="1">
-        <v>1849.0</v>
-      </c>
-    </row>
-    <row r="221">
+        <v>1849</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" ht="15.75" customHeight="1">
       <c r="A221" s="1" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B221" s="1" t="s">
         <v>7</v>
@@ -5616,15 +5947,15 @@
         <v>16</v>
       </c>
       <c r="E221" s="2">
-        <v>28602.0</v>
+        <v>28602</v>
       </c>
       <c r="F221" s="1">
-        <v>1872.0</v>
-      </c>
-    </row>
-    <row r="222">
+        <v>1872</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" ht="15.75" customHeight="1">
       <c r="A222" s="1" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B222" s="1" t="s">
         <v>7</v>
@@ -5636,15 +5967,15 @@
         <v>9</v>
       </c>
       <c r="E222" s="2">
-        <v>4527.0</v>
+        <v>4527</v>
       </c>
       <c r="F222" s="1">
-        <v>1880.0</v>
-      </c>
-    </row>
-    <row r="223">
+        <v>1880</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" ht="15.75" customHeight="1">
       <c r="A223" s="1" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B223" s="1" t="s">
         <v>7</v>
@@ -5656,15 +5987,15 @@
         <v>9</v>
       </c>
       <c r="E223" s="2">
-        <v>1902.0</v>
+        <v>1902</v>
       </c>
       <c r="F223" s="1">
-        <v>1775.0</v>
-      </c>
-    </row>
-    <row r="224">
+        <v>1775</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" ht="15.75" customHeight="1">
       <c r="A224" s="1" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B224" s="1" t="s">
         <v>7</v>
@@ -5676,15 +6007,15 @@
         <v>9</v>
       </c>
       <c r="E224" s="2">
-        <v>7839.0</v>
+        <v>7839</v>
       </c>
       <c r="F224" s="1">
-        <v>1810.0</v>
-      </c>
-    </row>
-    <row r="225">
+        <v>1810</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" ht="15.75" customHeight="1">
       <c r="A225" s="1" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B225" s="1" t="s">
         <v>7</v>
@@ -5696,15 +6027,15 @@
         <v>9</v>
       </c>
       <c r="E225" s="2">
-        <v>5890.0</v>
+        <v>5890</v>
       </c>
       <c r="F225" s="1">
-        <v>1797.0</v>
-      </c>
-    </row>
-    <row r="226">
+        <v>1797</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" ht="15.75" customHeight="1">
       <c r="A226" s="1" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B226" s="1" t="s">
         <v>7</v>
@@ -5716,15 +6047,15 @@
         <v>9</v>
       </c>
       <c r="E226" s="2">
-        <v>1612.0</v>
+        <v>1612</v>
       </c>
       <c r="F226" s="1">
-        <v>1773.0</v>
-      </c>
-    </row>
-    <row r="227">
+        <v>1773</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" ht="15.75" customHeight="1">
       <c r="A227" s="1" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B227" s="1" t="s">
         <v>7</v>
@@ -5736,15 +6067,15 @@
         <v>9</v>
       </c>
       <c r="E227" s="2">
-        <v>13709.0</v>
+        <v>13709</v>
       </c>
       <c r="F227" s="1">
-        <v>1713.0</v>
-      </c>
-    </row>
-    <row r="228">
+        <v>1713</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" ht="15.75" customHeight="1">
       <c r="A228" s="1" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B228" s="1" t="s">
         <v>18</v>
@@ -5756,15 +6087,15 @@
         <v>43</v>
       </c>
       <c r="E228" s="2">
-        <v>12140.0</v>
+        <v>12140</v>
       </c>
       <c r="F228" s="1">
-        <v>1775.0</v>
-      </c>
-    </row>
-    <row r="229">
+        <v>1775</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" ht="15.75" customHeight="1">
       <c r="A229" s="1" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B229" s="1" t="s">
         <v>7</v>
@@ -5776,15 +6107,15 @@
         <v>9</v>
       </c>
       <c r="E229" s="2">
-        <v>4806.0</v>
+        <v>4806</v>
       </c>
       <c r="F229" s="1">
-        <v>1775.0</v>
-      </c>
-    </row>
-    <row r="230">
+        <v>1775</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" ht="15.75" customHeight="1">
       <c r="A230" s="1" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B230" s="1" t="s">
         <v>18</v>
@@ -5796,15 +6127,15 @@
         <v>20</v>
       </c>
       <c r="E230" s="2">
-        <v>51251.0</v>
+        <v>51251</v>
       </c>
       <c r="F230" s="1">
-        <v>1868.0</v>
-      </c>
-    </row>
-    <row r="231">
+        <v>1868</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" ht="15.75" customHeight="1">
       <c r="A231" s="1" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B231" s="1" t="s">
         <v>7</v>
@@ -5816,15 +6147,15 @@
         <v>9</v>
       </c>
       <c r="E231" s="2">
-        <v>1321.0</v>
+        <v>1321</v>
       </c>
       <c r="F231" s="1">
-        <v>1743.0</v>
-      </c>
-    </row>
-    <row r="232">
+        <v>1743</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" ht="15.75" customHeight="1">
       <c r="A232" s="1" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B232" s="1" t="s">
         <v>7</v>
@@ -5836,15 +6167,15 @@
         <v>9</v>
       </c>
       <c r="E232" s="2">
-        <v>17837.0</v>
+        <v>17837</v>
       </c>
       <c r="F232" s="1">
-        <v>1712.0</v>
-      </c>
-    </row>
-    <row r="233">
+        <v>1712</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" ht="15.75" customHeight="1">
       <c r="A233" s="1" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B233" s="1" t="s">
         <v>7</v>
@@ -5856,15 +6187,15 @@
         <v>9</v>
       </c>
       <c r="E233" s="2">
-        <v>11497.0</v>
+        <v>11497</v>
       </c>
       <c r="F233" s="1">
-        <v>1775.0</v>
-      </c>
-    </row>
-    <row r="234">
+        <v>1775</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" ht="15.75" customHeight="1">
       <c r="A234" s="1" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B234" s="1" t="s">
         <v>7</v>
@@ -5876,15 +6207,15 @@
         <v>9</v>
       </c>
       <c r="E234" s="1">
-        <v>847.0</v>
+        <v>847</v>
       </c>
       <c r="F234" s="1">
-        <v>1771.0</v>
-      </c>
-    </row>
-    <row r="235">
+        <v>1771</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" ht="15.75" customHeight="1">
       <c r="A235" s="1" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B235" s="1" t="s">
         <v>7</v>
@@ -5896,15 +6227,15 @@
         <v>9</v>
       </c>
       <c r="E235" s="2">
-        <v>1234.0</v>
+        <v>1234</v>
       </c>
       <c r="F235" s="1">
-        <v>1754.0</v>
-      </c>
-    </row>
-    <row r="236">
+        <v>1754</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" ht="15.75" customHeight="1">
       <c r="A236" s="1" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B236" s="1" t="s">
         <v>7</v>
@@ -5916,15 +6247,15 @@
         <v>9</v>
       </c>
       <c r="E236" s="2">
-        <v>1682.0</v>
+        <v>1682</v>
       </c>
       <c r="F236" s="1">
-        <v>1786.0</v>
-      </c>
-    </row>
-    <row r="237">
+        <v>1786</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" ht="15.75" customHeight="1">
       <c r="A237" s="1" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B237" s="1" t="s">
         <v>18</v>
@@ -5936,15 +6267,15 @@
         <v>20</v>
       </c>
       <c r="E237" s="2">
-        <v>44737.0</v>
+        <v>44737</v>
       </c>
       <c r="F237" s="1">
-        <v>1761.0</v>
-      </c>
-    </row>
-    <row r="238">
+        <v>1761</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" ht="15.75" customHeight="1">
       <c r="A238" s="1" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B238" s="1" t="s">
         <v>7</v>
@@ -5956,15 +6287,15 @@
         <v>9</v>
       </c>
       <c r="E238" s="1">
-        <v>648.0</v>
+        <v>648</v>
       </c>
       <c r="F238" s="1">
-        <v>1807.0</v>
-      </c>
-    </row>
-    <row r="239">
+        <v>1807</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" ht="15.75" customHeight="1">
       <c r="A239" s="1" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B239" s="1" t="s">
         <v>7</v>
@@ -5976,13 +6307,13 @@
         <v>9</v>
       </c>
       <c r="E239" s="2">
-        <v>8264.0</v>
+        <v>8264</v>
       </c>
       <c r="F239" s="1">
-        <v>1905.0</v>
-      </c>
-    </row>
-    <row r="240">
+        <v>1905</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" ht="15.75" customHeight="1">
       <c r="A240" s="1" t="s">
         <v>8</v>
       </c>
@@ -5996,15 +6327,15 @@
         <v>16</v>
       </c>
       <c r="E240" s="2">
-        <v>56468.0</v>
+        <v>56468</v>
       </c>
       <c r="F240" s="1">
-        <v>1620.0</v>
-      </c>
-    </row>
-    <row r="241">
+        <v>1620</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" ht="15.75" customHeight="1">
       <c r="A241" s="1" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B241" s="1" t="s">
         <v>7</v>
@@ -6016,15 +6347,15 @@
         <v>9</v>
       </c>
       <c r="E241" s="2">
-        <v>2820.0</v>
+        <v>2820</v>
       </c>
       <c r="F241" s="1">
-        <v>1707.0</v>
-      </c>
-    </row>
-    <row r="242">
+        <v>1707</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" ht="15.75" customHeight="1">
       <c r="A242" s="1" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B242" s="1" t="s">
         <v>7</v>
@@ -6036,15 +6367,15 @@
         <v>9</v>
       </c>
       <c r="E242" s="2">
-        <v>3413.0</v>
+        <v>3413</v>
       </c>
       <c r="F242" s="1">
-        <v>1771.0</v>
-      </c>
-    </row>
-    <row r="243">
+        <v>1771</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" ht="15.75" customHeight="1">
       <c r="A243" s="1" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B243" s="1" t="s">
         <v>7</v>
@@ -6056,15 +6387,15 @@
         <v>9</v>
       </c>
       <c r="E243" s="2">
-        <v>2942.0</v>
+        <v>2942</v>
       </c>
       <c r="F243" s="1">
-        <v>1727.0</v>
-      </c>
-    </row>
-    <row r="244">
+        <v>1727</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" ht="15.75" customHeight="1">
       <c r="A244" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B244" s="1" t="s">
         <v>18</v>
@@ -6076,15 +6407,15 @@
         <v>20</v>
       </c>
       <c r="E244" s="2">
-        <v>92271.0</v>
+        <v>92271</v>
       </c>
       <c r="F244" s="1">
-        <v>1792.0</v>
-      </c>
-    </row>
-    <row r="245">
+        <v>1792</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" ht="15.75" customHeight="1">
       <c r="A245" s="1" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B245" s="1" t="s">
         <v>18</v>
@@ -6096,15 +6427,15 @@
         <v>43</v>
       </c>
       <c r="E245" s="2">
-        <v>32112.0</v>
+        <v>32112</v>
       </c>
       <c r="F245" s="1">
-        <v>1793.0</v>
-      </c>
-    </row>
-    <row r="246">
+        <v>1793</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" ht="15.75" customHeight="1">
       <c r="A246" s="1" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B246" s="1" t="s">
         <v>7</v>
@@ -6116,15 +6447,15 @@
         <v>9</v>
       </c>
       <c r="E246" s="2">
-        <v>13383.0</v>
+        <v>13383</v>
       </c>
       <c r="F246" s="1">
-        <v>1731.0</v>
-      </c>
-    </row>
-    <row r="247">
+        <v>1731</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" ht="15.75" customHeight="1">
       <c r="A247" s="1" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B247" s="1" t="s">
         <v>7</v>
@@ -6136,15 +6467,15 @@
         <v>16</v>
       </c>
       <c r="E247" s="2">
-        <v>24747.0</v>
+        <v>24747</v>
       </c>
       <c r="F247" s="1">
-        <v>1644.0</v>
-      </c>
-    </row>
-    <row r="248">
+        <v>1644</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" ht="15.75" customHeight="1">
       <c r="A248" s="1" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B248" s="1" t="s">
         <v>7</v>
@@ -6156,15 +6487,15 @@
         <v>9</v>
       </c>
       <c r="E248" s="2">
-        <v>11608.0</v>
+        <v>11608</v>
       </c>
       <c r="F248" s="1">
-        <v>1645.0</v>
-      </c>
-    </row>
-    <row r="249">
+        <v>1645</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" ht="15.75" customHeight="1">
       <c r="A249" s="1" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B249" s="1" t="s">
         <v>18</v>
@@ -6176,15 +6507,15 @@
         <v>20</v>
       </c>
       <c r="E249" s="2">
-        <v>51755.0</v>
+        <v>51755</v>
       </c>
       <c r="F249" s="1">
-        <v>1846.0</v>
-      </c>
-    </row>
-    <row r="250">
+        <v>1846</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" ht="15.75" customHeight="1">
       <c r="A250" s="1" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B250" s="1" t="s">
         <v>7</v>
@@ -6196,15 +6527,15 @@
         <v>9</v>
       </c>
       <c r="E250" s="2">
-        <v>1475.0</v>
+        <v>1475</v>
       </c>
       <c r="F250" s="1">
-        <v>1765.0</v>
-      </c>
-    </row>
-    <row r="251">
+        <v>1765</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" ht="15.75" customHeight="1">
       <c r="A251" s="1" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B251" s="1" t="s">
         <v>7</v>
@@ -6216,15 +6547,15 @@
         <v>9</v>
       </c>
       <c r="E251" s="2">
-        <v>5232.0</v>
+        <v>5232</v>
       </c>
       <c r="F251" s="1">
-        <v>1686.0</v>
-      </c>
-    </row>
-    <row r="252">
+        <v>1686</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" ht="15.75" customHeight="1">
       <c r="A252" s="1" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B252" s="1" t="s">
         <v>7</v>
@@ -6236,15 +6567,15 @@
         <v>9</v>
       </c>
       <c r="E252" s="2">
-        <v>17489.0</v>
+        <v>17489</v>
       </c>
       <c r="F252" s="1">
-        <v>1874.0</v>
-      </c>
-    </row>
-    <row r="253">
+        <v>1874</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" ht="15.75" customHeight="1">
       <c r="A253" s="1" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B253" s="1" t="s">
         <v>7</v>
@@ -6256,15 +6587,15 @@
         <v>9</v>
       </c>
       <c r="E253" s="2">
-        <v>6952.0</v>
+        <v>6952</v>
       </c>
       <c r="F253" s="1">
-        <v>1840.0</v>
-      </c>
-    </row>
-    <row r="254">
+        <v>1840</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" ht="15.75" customHeight="1">
       <c r="A254" s="1" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B254" s="1" t="s">
         <v>7</v>
@@ -6276,15 +6607,15 @@
         <v>9</v>
       </c>
       <c r="E254" s="1">
-        <v>393.0</v>
+        <v>393</v>
       </c>
       <c r="F254" s="1">
-        <v>1785.0</v>
-      </c>
-    </row>
-    <row r="255">
+        <v>1785</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" ht="15.75" customHeight="1">
       <c r="A255" s="1" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B255" s="1" t="s">
         <v>7</v>
@@ -6296,15 +6627,15 @@
         <v>9</v>
       </c>
       <c r="E255" s="2">
-        <v>5856.0</v>
+        <v>5856</v>
       </c>
       <c r="F255" s="1">
-        <v>1639.0</v>
-      </c>
-    </row>
-    <row r="256">
+        <v>1639</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" ht="15.75" customHeight="1">
       <c r="A256" s="1" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B256" s="1" t="s">
         <v>7</v>
@@ -6316,15 +6647,15 @@
         <v>9</v>
       </c>
       <c r="E256" s="2">
-        <v>1258.0</v>
+        <v>1258</v>
       </c>
       <c r="F256" s="1">
-        <v>1765.0</v>
-      </c>
-    </row>
-    <row r="257">
+        <v>1765</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" ht="15.75" customHeight="1">
       <c r="A257" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B257" s="1" t="s">
         <v>7</v>
@@ -6336,15 +6667,15 @@
         <v>9</v>
       </c>
       <c r="E257" s="2">
-        <v>1775.0</v>
+        <v>1775</v>
       </c>
       <c r="F257" s="1">
-        <v>1792.0</v>
-      </c>
-    </row>
-    <row r="258">
+        <v>1792</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" ht="15.75" customHeight="1">
       <c r="A258" s="1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B258" s="1" t="s">
         <v>7</v>
@@ -6356,15 +6687,15 @@
         <v>9</v>
       </c>
       <c r="E258" s="2">
-        <v>7973.0</v>
+        <v>7973</v>
       </c>
       <c r="F258" s="1">
-        <v>1713.0</v>
-      </c>
-    </row>
-    <row r="259">
+        <v>1713</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" ht="15.75" customHeight="1">
       <c r="A259" s="1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B259" s="1" t="s">
         <v>18</v>
@@ -6376,15 +6707,15 @@
         <v>20</v>
       </c>
       <c r="E259" s="2">
-        <v>41340.0</v>
+        <v>41340</v>
       </c>
       <c r="F259" s="1">
-        <v>1626.0</v>
-      </c>
-    </row>
-    <row r="260">
+        <v>1626</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" ht="15.75" customHeight="1">
       <c r="A260" s="1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B260" s="1" t="s">
         <v>7</v>
@@ -6396,15 +6727,15 @@
         <v>9</v>
       </c>
       <c r="E260" s="2">
-        <v>8283.0</v>
+        <v>8283</v>
       </c>
       <c r="F260" s="1">
-        <v>1639.0</v>
-      </c>
-    </row>
-    <row r="261">
+        <v>1639</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" ht="15.75" customHeight="1">
       <c r="A261" s="1" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B261" s="1" t="s">
         <v>7</v>
@@ -6416,15 +6747,15 @@
         <v>9</v>
       </c>
       <c r="E261" s="1">
-        <v>915.0</v>
+        <v>915</v>
       </c>
       <c r="F261" s="1">
-        <v>1762.0</v>
-      </c>
-    </row>
-    <row r="262">
+        <v>1762</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" ht="15.75" customHeight="1">
       <c r="A262" s="1" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B262" s="1" t="s">
         <v>7</v>
@@ -6436,15 +6767,15 @@
         <v>9</v>
       </c>
       <c r="E262" s="2">
-        <v>20675.0</v>
+        <v>20675</v>
       </c>
       <c r="F262" s="1">
-        <v>1639.0</v>
-      </c>
-    </row>
-    <row r="263">
+        <v>1639</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" ht="15.75" customHeight="1">
       <c r="A263" s="1" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B263" s="1" t="s">
         <v>7</v>
@@ -6456,15 +6787,15 @@
         <v>16</v>
       </c>
       <c r="E263" s="2">
-        <v>26628.0</v>
+        <v>26628</v>
       </c>
       <c r="F263" s="1">
-        <v>1815.0</v>
-      </c>
-    </row>
-    <row r="264">
+        <v>1815</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" ht="15.75" customHeight="1">
       <c r="A264" s="1" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B264" s="1" t="s">
         <v>7</v>
@@ -6476,15 +6807,15 @@
         <v>9</v>
       </c>
       <c r="E264" s="1">
-        <v>692.0</v>
+        <v>692</v>
       </c>
       <c r="F264" s="1">
-        <v>1797.0</v>
-      </c>
-    </row>
-    <row r="265">
+        <v>1797</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" ht="15.75" customHeight="1">
       <c r="A265" s="1" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B265" s="1" t="s">
         <v>7</v>
@@ -6496,15 +6827,15 @@
         <v>9</v>
       </c>
       <c r="E265" s="2">
-        <v>18133.0</v>
+        <v>18133</v>
       </c>
       <c r="F265" s="1">
-        <v>1636.0</v>
-      </c>
-    </row>
-    <row r="266">
+        <v>1636</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" ht="15.75" customHeight="1">
       <c r="A266" s="1" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B266" s="1" t="s">
         <v>7</v>
@@ -6516,15 +6847,15 @@
         <v>9</v>
       </c>
       <c r="E266" s="2">
-        <v>13722.0</v>
+        <v>13722</v>
       </c>
       <c r="F266" s="1">
-        <v>1812.0</v>
-      </c>
-    </row>
-    <row r="267">
+        <v>1812</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" ht="15.75" customHeight="1">
       <c r="A267" s="1" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B267" s="1" t="s">
         <v>7</v>
@@ -6536,15 +6867,15 @@
         <v>9</v>
       </c>
       <c r="E267" s="2">
-        <v>17612.0</v>
+        <v>17612</v>
       </c>
       <c r="F267" s="1">
-        <v>1775.0</v>
-      </c>
-    </row>
-    <row r="268">
+        <v>1775</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" ht="15.75" customHeight="1">
       <c r="A268" s="1" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B268" s="1" t="s">
         <v>7</v>
@@ -6556,15 +6887,15 @@
         <v>9</v>
       </c>
       <c r="E268" s="2">
-        <v>3257.0</v>
+        <v>3257</v>
       </c>
       <c r="F268" s="1">
-        <v>1733.0</v>
-      </c>
-    </row>
-    <row r="269">
+        <v>1733</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6" ht="15.75" customHeight="1">
       <c r="A269" s="1" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B269" s="1" t="s">
         <v>7</v>
@@ -6576,15 +6907,15 @@
         <v>9</v>
       </c>
       <c r="E269" s="2">
-        <v>1893.0</v>
+        <v>1893</v>
       </c>
       <c r="F269" s="1">
-        <v>1775.0</v>
-      </c>
-    </row>
-    <row r="270">
+        <v>1775</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6" ht="15.75" customHeight="1">
       <c r="A270" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B270" s="1" t="s">
         <v>7</v>
@@ -6596,15 +6927,15 @@
         <v>9</v>
       </c>
       <c r="E270" s="2">
-        <v>4119.0</v>
+        <v>4119</v>
       </c>
       <c r="F270" s="1">
-        <v>1674.0</v>
-      </c>
-    </row>
-    <row r="271">
+        <v>1674</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6" ht="15.75" customHeight="1">
       <c r="A271" s="1" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B271" s="1" t="s">
         <v>7</v>
@@ -6616,15 +6947,15 @@
         <v>9</v>
       </c>
       <c r="E271" s="2">
-        <v>7211.0</v>
+        <v>7211</v>
       </c>
       <c r="F271" s="1">
-        <v>1775.0</v>
-      </c>
-    </row>
-    <row r="272">
+        <v>1775</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6" ht="15.75" customHeight="1">
       <c r="A272" s="1" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B272" s="1" t="s">
         <v>7</v>
@@ -6636,15 +6967,15 @@
         <v>16</v>
       </c>
       <c r="E272" s="2">
-        <v>35608.0</v>
+        <v>35608</v>
       </c>
       <c r="F272" s="1">
-        <v>1727.0</v>
-      </c>
-    </row>
-    <row r="273">
+        <v>1727</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6" ht="15.75" customHeight="1">
       <c r="A273" s="1" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B273" s="1" t="s">
         <v>7</v>
@@ -6656,15 +6987,15 @@
         <v>9</v>
       </c>
       <c r="E273" s="2">
-        <v>1771.0</v>
+        <v>1771</v>
       </c>
       <c r="F273" s="1">
-        <v>1761.0</v>
-      </c>
-    </row>
-    <row r="274">
+        <v>1761</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6" ht="15.75" customHeight="1">
       <c r="A274" s="1" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B274" s="1" t="s">
         <v>7</v>
@@ -6676,15 +7007,15 @@
         <v>9</v>
       </c>
       <c r="E274" s="2">
-        <v>18165.0</v>
+        <v>18165</v>
       </c>
       <c r="F274" s="1">
-        <v>1790.0</v>
-      </c>
-    </row>
-    <row r="275">
+        <v>1790</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6" ht="15.75" customHeight="1">
       <c r="A275" s="1" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B275" s="1" t="s">
         <v>18</v>
@@ -6696,15 +7027,15 @@
         <v>89</v>
       </c>
       <c r="E275" s="2">
-        <v>75754.0</v>
+        <v>75754</v>
       </c>
       <c r="F275" s="1">
-        <v>1842.0</v>
-      </c>
-    </row>
-    <row r="276">
+        <v>1842</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6" ht="15.75" customHeight="1">
       <c r="A276" s="1" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B276" s="1" t="s">
         <v>7</v>
@@ -6716,15 +7047,15 @@
         <v>16</v>
       </c>
       <c r="E276" s="2">
-        <v>17514.0</v>
+        <v>17514</v>
       </c>
       <c r="F276" s="1">
-        <v>1775.0</v>
-      </c>
-    </row>
-    <row r="277">
+        <v>1775</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6" ht="15.75" customHeight="1">
       <c r="A277" s="1" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B277" s="1" t="s">
         <v>7</v>
@@ -6736,15 +7067,15 @@
         <v>9</v>
       </c>
       <c r="E277" s="2">
-        <v>5792.0</v>
+        <v>5792</v>
       </c>
       <c r="F277" s="1">
-        <v>1775.0</v>
-      </c>
-    </row>
-    <row r="278">
+        <v>1775</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6" ht="15.75" customHeight="1">
       <c r="A278" s="1" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B278" s="1" t="s">
         <v>7</v>
@@ -6756,15 +7087,15 @@
         <v>9</v>
       </c>
       <c r="E278" s="2">
-        <v>9767.0</v>
+        <v>9767</v>
       </c>
       <c r="F278" s="1">
-        <v>1727.0</v>
-      </c>
-    </row>
-    <row r="279">
+        <v>1727</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6" ht="15.75" customHeight="1">
       <c r="A279" s="1" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B279" s="1" t="s">
         <v>18</v>
@@ -6776,15 +7107,15 @@
         <v>43</v>
       </c>
       <c r="E279" s="2">
-        <v>16719.0</v>
+        <v>16719</v>
       </c>
       <c r="F279" s="1">
-        <v>1816.0</v>
-      </c>
-    </row>
-    <row r="280">
+        <v>1816</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6" ht="15.75" customHeight="1">
       <c r="A280" s="1" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B280" s="1" t="s">
         <v>7</v>
@@ -6796,15 +7127,15 @@
         <v>9</v>
       </c>
       <c r="E280" s="2">
-        <v>9502.0</v>
+        <v>9502</v>
       </c>
       <c r="F280" s="1">
-        <v>1775.0</v>
-      </c>
-    </row>
-    <row r="281">
+        <v>1775</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6" ht="15.75" customHeight="1">
       <c r="A281" s="1" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B281" s="1" t="s">
         <v>7</v>
@@ -6816,15 +7147,15 @@
         <v>9</v>
       </c>
       <c r="E281" s="2">
-        <v>11688.0</v>
+        <v>11688</v>
       </c>
       <c r="F281" s="1">
-        <v>1775.0</v>
-      </c>
-    </row>
-    <row r="282">
+        <v>1775</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6" ht="15.75" customHeight="1">
       <c r="A282" s="1" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B282" s="1" t="s">
         <v>18</v>
@@ -6836,15 +7167,15 @@
         <v>20</v>
       </c>
       <c r="E282" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="F282" s="1">
+        <v>1636</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A283" s="1" t="s">
         <v>307</v>
-      </c>
-      <c r="F282" s="1">
-        <v>1636.0</v>
-      </c>
-    </row>
-    <row r="283">
-      <c r="A283" s="1" t="s">
-        <v>308</v>
       </c>
       <c r="B283" s="1" t="s">
         <v>7</v>
@@ -6856,15 +7187,15 @@
         <v>9</v>
       </c>
       <c r="E283" s="2">
-        <v>7808.0</v>
+        <v>7808</v>
       </c>
       <c r="F283" s="1">
-        <v>1781.0</v>
-      </c>
-    </row>
-    <row r="284">
+        <v>1781</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6" ht="15.75" customHeight="1">
       <c r="A284" s="1" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B284" s="1" t="s">
         <v>7</v>
@@ -6876,15 +7207,15 @@
         <v>9</v>
       </c>
       <c r="E284" s="2">
-        <v>1947.0</v>
+        <v>1947</v>
       </c>
       <c r="F284" s="1">
-        <v>1739.0</v>
-      </c>
-    </row>
-    <row r="285">
+        <v>1739</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6" ht="15.75" customHeight="1">
       <c r="A285" s="1" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B285" s="1" t="s">
         <v>7</v>
@@ -6896,15 +7227,15 @@
         <v>9</v>
       </c>
       <c r="E285" s="2">
-        <v>21437.0</v>
+        <v>21437</v>
       </c>
       <c r="F285" s="1">
-        <v>1725.0</v>
-      </c>
-    </row>
-    <row r="286">
+        <v>1725</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6" ht="15.75" customHeight="1">
       <c r="A286" s="1" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B286" s="1" t="s">
         <v>7</v>
@@ -6916,15 +7247,15 @@
         <v>16</v>
       </c>
       <c r="E286" s="2">
-        <v>26962.0</v>
+        <v>26962</v>
       </c>
       <c r="F286" s="1">
-        <v>1726.0</v>
-      </c>
-    </row>
-    <row r="287">
+        <v>1726</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6" ht="15.75" customHeight="1">
       <c r="A287" s="1" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B287" s="1" t="s">
         <v>7</v>
@@ -6936,15 +7267,15 @@
         <v>9</v>
       </c>
       <c r="E287" s="2">
-        <v>6590.0</v>
+        <v>6590</v>
       </c>
       <c r="F287" s="1">
-        <v>1683.0</v>
-      </c>
-    </row>
-    <row r="288">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6" ht="15.75" customHeight="1">
       <c r="A288" s="1" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B288" s="1" t="s">
         <v>7</v>
@@ -6956,15 +7287,15 @@
         <v>9</v>
       </c>
       <c r="E288" s="2">
-        <v>9268.0</v>
+        <v>9268</v>
       </c>
       <c r="F288" s="1">
-        <v>1738.0</v>
-      </c>
-    </row>
-    <row r="289">
+        <v>1738</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6" ht="15.75" customHeight="1">
       <c r="A289" s="1" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B289" s="1" t="s">
         <v>7</v>
@@ -6976,15 +7307,15 @@
         <v>9</v>
       </c>
       <c r="E289" s="2">
-        <v>17659.0</v>
+        <v>17659</v>
       </c>
       <c r="F289" s="1">
-        <v>1639.0</v>
-      </c>
-    </row>
-    <row r="290">
+        <v>1639</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6" ht="15.75" customHeight="1">
       <c r="A290" s="1" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B290" s="1" t="s">
         <v>7</v>
@@ -6996,15 +7327,15 @@
         <v>9</v>
       </c>
       <c r="E290" s="2">
-        <v>3684.0</v>
+        <v>3684</v>
       </c>
       <c r="F290" s="1">
-        <v>1714.0</v>
-      </c>
-    </row>
-    <row r="291">
+        <v>1714</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6" ht="15.75" customHeight="1">
       <c r="A291" s="1" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B291" s="1" t="s">
         <v>7</v>
@@ -7016,15 +7347,15 @@
         <v>9</v>
       </c>
       <c r="E291" s="2">
-        <v>8963.0</v>
+        <v>8963</v>
       </c>
       <c r="F291" s="1">
-        <v>1714.0</v>
-      </c>
-    </row>
-    <row r="292">
+        <v>1714</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6" ht="15.75" customHeight="1">
       <c r="A292" s="1" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B292" s="1" t="s">
         <v>7</v>
@@ -7036,15 +7367,15 @@
         <v>16</v>
       </c>
       <c r="E292" s="2">
-        <v>13787.0</v>
+        <v>13787</v>
       </c>
       <c r="F292" s="1">
-        <v>1852.0</v>
-      </c>
-    </row>
-    <row r="293">
+        <v>1852</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6" ht="15.75" customHeight="1">
       <c r="A293" s="1" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B293" s="1" t="s">
         <v>7</v>
@@ -7056,15 +7387,15 @@
         <v>9</v>
       </c>
       <c r="E293" s="2">
-        <v>15865.0</v>
+        <v>15865</v>
       </c>
       <c r="F293" s="1">
-        <v>1667.0</v>
-      </c>
-    </row>
-    <row r="294">
+        <v>1667</v>
+      </c>
+    </row>
+    <row r="294" spans="1:6" ht="15.75" customHeight="1">
       <c r="A294" s="1" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B294" s="1" t="s">
         <v>18</v>
@@ -7076,15 +7407,15 @@
         <v>20</v>
       </c>
       <c r="E294" s="2">
-        <v>55874.0</v>
+        <v>55874</v>
       </c>
       <c r="F294" s="1">
-        <v>1639.0</v>
-      </c>
-    </row>
-    <row r="295">
+        <v>1639</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6" ht="15.75" customHeight="1">
       <c r="A295" s="1" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B295" s="1" t="s">
         <v>7</v>
@@ -7096,15 +7427,15 @@
         <v>9</v>
       </c>
       <c r="E295" s="2">
-        <v>8013.0</v>
+        <v>8013</v>
       </c>
       <c r="F295" s="1">
-        <v>1762.0</v>
-      </c>
-    </row>
-    <row r="296">
+        <v>1762</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6" ht="15.75" customHeight="1">
       <c r="A296" s="1" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B296" s="1" t="s">
         <v>7</v>
@@ -7116,15 +7447,15 @@
         <v>9</v>
       </c>
       <c r="E296" s="2">
-        <v>28961.0</v>
+        <v>28961</v>
       </c>
       <c r="F296" s="1">
-        <v>1734.0</v>
-      </c>
-    </row>
-    <row r="297">
+        <v>1734</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6" ht="15.75" customHeight="1">
       <c r="A297" s="1" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B297" s="1" t="s">
         <v>7</v>
@@ -7136,15 +7467,15 @@
         <v>9</v>
       </c>
       <c r="E297" s="2">
-        <v>3949.0</v>
+        <v>3949</v>
       </c>
       <c r="F297" s="1">
-        <v>1671.0</v>
-      </c>
-    </row>
-    <row r="298">
+        <v>1671</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6" ht="15.75" customHeight="1">
       <c r="A298" s="1" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B298" s="1" t="s">
         <v>7</v>
@@ -7156,15 +7487,15 @@
         <v>9</v>
       </c>
       <c r="E298" s="1">
-        <v>485.0</v>
+        <v>485</v>
       </c>
       <c r="F298" s="1">
-        <v>1810.0</v>
-      </c>
-    </row>
-    <row r="299">
+        <v>1810</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6" ht="15.75" customHeight="1">
       <c r="A299" s="1" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B299" s="1" t="s">
         <v>7</v>
@@ -7176,15 +7507,15 @@
         <v>9</v>
       </c>
       <c r="E299" s="2">
-        <v>6085.0</v>
+        <v>6085</v>
       </c>
       <c r="F299" s="1">
-        <v>1650.0</v>
-      </c>
-    </row>
-    <row r="300">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6" ht="15.75" customHeight="1">
       <c r="A300" s="1" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B300" s="1" t="s">
         <v>7</v>
@@ -7196,15 +7527,15 @@
         <v>9</v>
       </c>
       <c r="E300" s="2">
-        <v>8926.0</v>
+        <v>8926</v>
       </c>
       <c r="F300" s="1">
-        <v>1732.0</v>
-      </c>
-    </row>
-    <row r="301">
+        <v>1732</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6" ht="15.75" customHeight="1">
       <c r="A301" s="1" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B301" s="1" t="s">
         <v>7</v>
@@ -7216,15 +7547,15 @@
         <v>9</v>
       </c>
       <c r="E301" s="2">
-        <v>2003.0</v>
+        <v>2003</v>
       </c>
       <c r="F301" s="1">
-        <v>1709.0</v>
-      </c>
-    </row>
-    <row r="302">
+        <v>1709</v>
+      </c>
+    </row>
+    <row r="302" spans="1:6" ht="15.75" customHeight="1">
       <c r="A302" s="1" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B302" s="1" t="s">
         <v>7</v>
@@ -7236,15 +7567,15 @@
         <v>9</v>
       </c>
       <c r="E302" s="2">
-        <v>11292.0</v>
+        <v>11292</v>
       </c>
       <c r="F302" s="1">
-        <v>1809.0</v>
-      </c>
-    </row>
-    <row r="303">
+        <v>1809</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6" ht="15.75" customHeight="1">
       <c r="A303" s="1" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B303" s="1" t="s">
         <v>7</v>
@@ -7256,15 +7587,15 @@
         <v>9</v>
       </c>
       <c r="E303" s="1">
-        <v>327.0</v>
+        <v>327</v>
       </c>
       <c r="F303" s="1">
-        <v>1762.0</v>
-      </c>
-    </row>
-    <row r="304">
+        <v>1762</v>
+      </c>
+    </row>
+    <row r="304" spans="1:6" ht="15.75" customHeight="1">
       <c r="A304" s="1" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B304" s="1" t="s">
         <v>7</v>
@@ -7276,15 +7607,15 @@
         <v>9</v>
       </c>
       <c r="E304" s="2">
-        <v>7542.0</v>
+        <v>7542</v>
       </c>
       <c r="F304" s="1">
-        <v>1735.0</v>
-      </c>
-    </row>
-    <row r="305">
+        <v>1735</v>
+      </c>
+    </row>
+    <row r="305" spans="1:6" ht="15.75" customHeight="1">
       <c r="A305" s="1" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B305" s="1" t="s">
         <v>7</v>
@@ -7296,15 +7627,15 @@
         <v>9</v>
       </c>
       <c r="E305" s="2">
-        <v>13457.0</v>
+        <v>13457</v>
       </c>
       <c r="F305" s="1">
-        <v>1727.0</v>
-      </c>
-    </row>
-    <row r="306">
+        <v>1727</v>
+      </c>
+    </row>
+    <row r="306" spans="1:6" ht="15.75" customHeight="1">
       <c r="A306" s="1" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B306" s="1" t="s">
         <v>7</v>
@@ -7316,15 +7647,15 @@
         <v>9</v>
       </c>
       <c r="E306" s="2">
-        <v>24932.0</v>
+        <v>24932</v>
       </c>
       <c r="F306" s="1">
-        <v>1812.0</v>
-      </c>
-    </row>
-    <row r="307">
+        <v>1812</v>
+      </c>
+    </row>
+    <row r="307" spans="1:6" ht="15.75" customHeight="1">
       <c r="A307" s="1" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B307" s="1" t="s">
         <v>7</v>
@@ -7336,15 +7667,15 @@
         <v>9</v>
       </c>
       <c r="E307" s="2">
-        <v>1838.0</v>
+        <v>1838</v>
       </c>
       <c r="F307" s="1">
-        <v>1775.0</v>
-      </c>
-    </row>
-    <row r="308">
+        <v>1775</v>
+      </c>
+    </row>
+    <row r="308" spans="1:6" ht="15.75" customHeight="1">
       <c r="A308" s="1" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B308" s="1" t="s">
         <v>7</v>
@@ -7356,15 +7687,15 @@
         <v>16</v>
       </c>
       <c r="E308" s="2">
-        <v>24070.0</v>
+        <v>24070</v>
       </c>
       <c r="F308" s="1">
-        <v>1724.0</v>
-      </c>
-    </row>
-    <row r="309">
+        <v>1724</v>
+      </c>
+    </row>
+    <row r="309" spans="1:6" ht="15.75" customHeight="1">
       <c r="A309" s="1" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B309" s="1" t="s">
         <v>18</v>
@@ -7376,15 +7707,15 @@
         <v>20</v>
       </c>
       <c r="E309" s="2">
-        <v>60632.0</v>
+        <v>60632</v>
       </c>
       <c r="F309" s="1">
-        <v>1738.0</v>
-      </c>
-    </row>
-    <row r="310">
+        <v>1738</v>
+      </c>
+    </row>
+    <row r="310" spans="1:6" ht="15.75" customHeight="1">
       <c r="A310" s="1" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B310" s="1" t="s">
         <v>7</v>
@@ -7396,15 +7727,15 @@
         <v>9</v>
       </c>
       <c r="E310" s="2">
-        <v>9872.0</v>
+        <v>9872</v>
       </c>
       <c r="F310" s="1">
-        <v>1775.0</v>
-      </c>
-    </row>
-    <row r="311">
+        <v>1775</v>
+      </c>
+    </row>
+    <row r="311" spans="1:6" ht="15.75" customHeight="1">
       <c r="A311" s="1" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B311" s="1" t="s">
         <v>7</v>
@@ -7416,15 +7747,15 @@
         <v>9</v>
       </c>
       <c r="E311" s="2">
-        <v>21822.0</v>
+        <v>21822</v>
       </c>
       <c r="F311" s="1">
-        <v>1739.0</v>
-      </c>
-    </row>
-    <row r="312">
+        <v>1739</v>
+      </c>
+    </row>
+    <row r="312" spans="1:6" ht="15.75" customHeight="1">
       <c r="A312" s="1" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B312" s="1" t="s">
         <v>7</v>
@@ -7436,15 +7767,15 @@
         <v>9</v>
       </c>
       <c r="E312" s="2">
-        <v>5135.0</v>
+        <v>5135</v>
       </c>
       <c r="F312" s="1">
-        <v>1742.0</v>
-      </c>
-    </row>
-    <row r="313">
+        <v>1742</v>
+      </c>
+    </row>
+    <row r="313" spans="1:6" ht="15.75" customHeight="1">
       <c r="A313" s="1" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B313" s="1" t="s">
         <v>7</v>
@@ -7456,15 +7787,15 @@
         <v>9</v>
       </c>
       <c r="E313" s="1">
-        <v>780.0</v>
+        <v>780</v>
       </c>
       <c r="F313" s="1">
-        <v>1763.0</v>
-      </c>
-    </row>
-    <row r="314">
+        <v>1763</v>
+      </c>
+    </row>
+    <row r="314" spans="1:6" ht="15.75" customHeight="1">
       <c r="A314" s="1" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B314" s="1" t="s">
         <v>7</v>
@@ -7476,15 +7807,15 @@
         <v>9</v>
       </c>
       <c r="E314" s="1">
-        <v>538.0</v>
+        <v>538</v>
       </c>
       <c r="F314" s="1">
-        <v>1777.0</v>
-      </c>
-    </row>
-    <row r="315">
+        <v>1777</v>
+      </c>
+    </row>
+    <row r="315" spans="1:6" ht="15.75" customHeight="1">
       <c r="A315" s="1" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B315" s="1" t="s">
         <v>18</v>
@@ -7496,15 +7827,15 @@
         <v>43</v>
       </c>
       <c r="E315" s="2">
-        <v>31915.0</v>
+        <v>31915</v>
       </c>
       <c r="F315" s="1">
-        <v>1630.0</v>
-      </c>
-    </row>
-    <row r="316">
+        <v>1630</v>
+      </c>
+    </row>
+    <row r="316" spans="1:6" ht="15.75" customHeight="1">
       <c r="A316" s="1" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B316" s="1" t="s">
         <v>7</v>
@@ -7516,15 +7847,15 @@
         <v>9</v>
       </c>
       <c r="E316" s="2">
-        <v>12994.0</v>
+        <v>12994</v>
       </c>
       <c r="F316" s="1">
-        <v>1780.0</v>
-      </c>
-    </row>
-    <row r="317">
+        <v>1780</v>
+      </c>
+    </row>
+    <row r="317" spans="1:6" ht="15.75" customHeight="1">
       <c r="A317" s="1" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B317" s="1" t="s">
         <v>7</v>
@@ -7536,15 +7867,15 @@
         <v>9</v>
       </c>
       <c r="E317" s="2">
-        <v>16767.0</v>
+        <v>16767</v>
       </c>
       <c r="F317" s="1">
-        <v>1832.0</v>
-      </c>
-    </row>
-    <row r="318">
+        <v>1832</v>
+      </c>
+    </row>
+    <row r="318" spans="1:6" ht="15.75" customHeight="1">
       <c r="A318" s="1" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B318" s="1" t="s">
         <v>7</v>
@@ -7556,15 +7887,15 @@
         <v>16</v>
       </c>
       <c r="E318" s="2">
-        <v>27982.0</v>
+        <v>27982</v>
       </c>
       <c r="F318" s="1">
-        <v>1881.0</v>
-      </c>
-    </row>
-    <row r="319">
+        <v>1881</v>
+      </c>
+    </row>
+    <row r="319" spans="1:6" ht="15.75" customHeight="1">
       <c r="A319" s="1" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B319" s="1" t="s">
         <v>7</v>
@@ -7576,15 +7907,15 @@
         <v>9</v>
       </c>
       <c r="E319" s="2">
-        <v>2750.0</v>
+        <v>2750</v>
       </c>
       <c r="F319" s="1">
-        <v>1775.0</v>
-      </c>
-    </row>
-    <row r="320">
+        <v>1775</v>
+      </c>
+    </row>
+    <row r="320" spans="1:6" ht="15.75" customHeight="1">
       <c r="A320" s="1" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B320" s="1" t="s">
         <v>7</v>
@@ -7596,15 +7927,15 @@
         <v>9</v>
       </c>
       <c r="E320" s="1">
-        <v>848.0</v>
+        <v>848</v>
       </c>
       <c r="F320" s="1">
-        <v>1781.0</v>
-      </c>
-    </row>
-    <row r="321">
+        <v>1781</v>
+      </c>
+    </row>
+    <row r="321" spans="1:6" ht="15.75" customHeight="1">
       <c r="A321" s="1" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B321" s="1" t="s">
         <v>7</v>
@@ -7616,15 +7947,15 @@
         <v>9</v>
       </c>
       <c r="E321" s="2">
-        <v>4875.0</v>
+        <v>4875</v>
       </c>
       <c r="F321" s="1">
-        <v>1643.0</v>
-      </c>
-    </row>
-    <row r="322">
+        <v>1643</v>
+      </c>
+    </row>
+    <row r="322" spans="1:6" ht="15.75" customHeight="1">
       <c r="A322" s="1" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B322" s="1" t="s">
         <v>7</v>
@@ -7636,15 +7967,15 @@
         <v>9</v>
       </c>
       <c r="E322" s="2">
-        <v>7669.0</v>
+        <v>7669</v>
       </c>
       <c r="F322" s="1">
-        <v>1808.0</v>
-      </c>
-    </row>
-    <row r="323">
+        <v>1808</v>
+      </c>
+    </row>
+    <row r="323" spans="1:6" ht="15.75" customHeight="1">
       <c r="A323" s="1" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B323" s="1" t="s">
         <v>7</v>
@@ -7656,15 +7987,15 @@
         <v>9</v>
       </c>
       <c r="E323" s="2">
-        <v>6916.0</v>
+        <v>6916</v>
       </c>
       <c r="F323" s="1">
-        <v>1822.0</v>
-      </c>
-    </row>
-    <row r="324">
+        <v>1822</v>
+      </c>
+    </row>
+    <row r="324" spans="1:6" ht="15.75" customHeight="1">
       <c r="A324" s="1" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B324" s="1" t="s">
         <v>7</v>
@@ -7676,15 +8007,15 @@
         <v>9</v>
       </c>
       <c r="E324" s="2">
-        <v>3701.0</v>
+        <v>3701</v>
       </c>
       <c r="F324" s="1">
-        <v>1848.0</v>
-      </c>
-    </row>
-    <row r="325">
+        <v>1848</v>
+      </c>
+    </row>
+    <row r="325" spans="1:6" ht="15.75" customHeight="1">
       <c r="A325" s="1" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B325" s="1" t="s">
         <v>7</v>
@@ -7696,15 +8027,15 @@
         <v>9</v>
       </c>
       <c r="E325" s="2">
-        <v>4235.0</v>
+        <v>4235</v>
       </c>
       <c r="F325" s="1">
-        <v>1819.0</v>
-      </c>
-    </row>
-    <row r="326">
+        <v>1819</v>
+      </c>
+    </row>
+    <row r="326" spans="1:6" ht="15.75" customHeight="1">
       <c r="A326" s="1" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B326" s="1" t="s">
         <v>18</v>
@@ -7716,15 +8047,15 @@
         <v>20</v>
       </c>
       <c r="E326" s="2">
-        <v>28391.0</v>
+        <v>28391</v>
       </c>
       <c r="F326" s="1">
-        <v>1774.0</v>
-      </c>
-    </row>
-    <row r="327">
+        <v>1774</v>
+      </c>
+    </row>
+    <row r="327" spans="1:6" ht="15.75" customHeight="1">
       <c r="A327" s="1" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B327" s="1" t="s">
         <v>7</v>
@@ -7736,15 +8067,15 @@
         <v>9</v>
       </c>
       <c r="E327" s="2">
-        <v>1306.0</v>
+        <v>1306</v>
       </c>
       <c r="F327" s="1">
-        <v>1775.0</v>
-      </c>
-    </row>
-    <row r="328">
+        <v>1775</v>
+      </c>
+    </row>
+    <row r="328" spans="1:6" ht="15.75" customHeight="1">
       <c r="A328" s="1" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B328" s="1" t="s">
         <v>7</v>
@@ -7756,15 +8087,15 @@
         <v>9</v>
       </c>
       <c r="E328" s="2">
-        <v>2740.0</v>
+        <v>2740</v>
       </c>
       <c r="F328" s="1">
-        <v>1892.0</v>
-      </c>
-    </row>
-    <row r="329">
+        <v>1892</v>
+      </c>
+    </row>
+    <row r="329" spans="1:6" ht="15.75" customHeight="1">
       <c r="A329" s="1" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B329" s="1" t="s">
         <v>7</v>
@@ -7776,15 +8107,15 @@
         <v>9</v>
       </c>
       <c r="E329" s="2">
-        <v>18272.0</v>
+        <v>18272</v>
       </c>
       <c r="F329" s="1">
-        <v>1717.0</v>
-      </c>
-    </row>
-    <row r="330">
+        <v>1717</v>
+      </c>
+    </row>
+    <row r="330" spans="1:6" ht="15.75" customHeight="1">
       <c r="A330" s="1" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B330" s="1" t="s">
         <v>18</v>
@@ -7796,15 +8127,15 @@
         <v>20</v>
       </c>
       <c r="E330" s="2">
-        <v>41094.0</v>
+        <v>41094</v>
       </c>
       <c r="F330" s="1">
-        <v>1669.0</v>
-      </c>
-    </row>
-    <row r="331">
+        <v>1669</v>
+      </c>
+    </row>
+    <row r="331" spans="1:6" ht="15.75" customHeight="1">
       <c r="A331" s="1" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B331" s="1" t="s">
         <v>7</v>
@@ -7816,15 +8147,15 @@
         <v>9</v>
       </c>
       <c r="E331" s="2">
-        <v>21951.0</v>
+        <v>21951</v>
       </c>
       <c r="F331" s="1">
-        <v>1729.0</v>
-      </c>
-    </row>
-    <row r="332">
+        <v>1729</v>
+      </c>
+    </row>
+    <row r="332" spans="1:6" ht="15.75" customHeight="1">
       <c r="A332" s="1" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B332" s="1" t="s">
         <v>7</v>
@@ -7836,15 +8167,15 @@
         <v>9</v>
       </c>
       <c r="E332" s="2">
-        <v>1607.0</v>
+        <v>1607</v>
       </c>
       <c r="F332" s="1">
-        <v>1778.0</v>
-      </c>
-    </row>
-    <row r="333">
+        <v>1778</v>
+      </c>
+    </row>
+    <row r="333" spans="1:6" ht="15.75" customHeight="1">
       <c r="A333" s="1" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B333" s="1" t="s">
         <v>7</v>
@@ -7856,15 +8187,15 @@
         <v>9</v>
       </c>
       <c r="E333" s="2">
-        <v>7277.0</v>
+        <v>7277</v>
       </c>
       <c r="F333" s="1">
-        <v>1770.0</v>
-      </c>
-    </row>
-    <row r="334">
+        <v>1770</v>
+      </c>
+    </row>
+    <row r="334" spans="1:6" ht="15.75" customHeight="1">
       <c r="A334" s="1" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B334" s="1" t="s">
         <v>7</v>
@@ -7876,15 +8207,15 @@
         <v>9</v>
       </c>
       <c r="E334" s="2">
-        <v>11261.0</v>
+        <v>11261</v>
       </c>
       <c r="F334" s="1">
-        <v>1713.0</v>
-      </c>
-    </row>
-    <row r="335">
+        <v>1713</v>
+      </c>
+    </row>
+    <row r="335" spans="1:6" ht="15.75" customHeight="1">
       <c r="A335" s="1" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B335" s="1" t="s">
         <v>7</v>
@@ -7896,15 +8227,15 @@
         <v>9</v>
       </c>
       <c r="E335" s="2">
-        <v>15532.0</v>
+        <v>15532</v>
       </c>
       <c r="F335" s="1">
-        <v>1787.0</v>
-      </c>
-    </row>
-    <row r="336">
+        <v>1787</v>
+      </c>
+    </row>
+    <row r="336" spans="1:6" ht="15.75" customHeight="1">
       <c r="A336" s="1" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B336" s="1" t="s">
         <v>7</v>
@@ -7916,15 +8247,15 @@
         <v>9</v>
       </c>
       <c r="E336" s="2">
-        <v>14618.0</v>
+        <v>14618</v>
       </c>
       <c r="F336" s="1">
-        <v>1897.0</v>
-      </c>
-    </row>
-    <row r="337">
+        <v>1897</v>
+      </c>
+    </row>
+    <row r="337" spans="1:6" ht="15.75" customHeight="1">
       <c r="A337" s="1" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B337" s="1" t="s">
         <v>18</v>
@@ -7936,15 +8267,15 @@
         <v>20</v>
       </c>
       <c r="E337" s="2">
-        <v>53743.0</v>
+        <v>53743</v>
       </c>
       <c r="F337" s="1">
-        <v>1635.0</v>
-      </c>
-    </row>
-    <row r="338">
+        <v>1635</v>
+      </c>
+    </row>
+    <row r="338" spans="1:6" ht="15.75" customHeight="1">
       <c r="A338" s="1" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B338" s="1" t="s">
         <v>7</v>
@@ -7956,15 +8287,15 @@
         <v>9</v>
       </c>
       <c r="E338" s="2">
-        <v>1496.0</v>
+        <v>1496</v>
       </c>
       <c r="F338" s="1">
-        <v>1771.0</v>
-      </c>
-    </row>
-    <row r="339">
+        <v>1771</v>
+      </c>
+    </row>
+    <row r="339" spans="1:6" ht="15.75" customHeight="1">
       <c r="A339" s="1" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B339" s="1" t="s">
         <v>7</v>
@@ -7976,15 +8307,15 @@
         <v>9</v>
       </c>
       <c r="E339" s="2">
-        <v>14489.0</v>
+        <v>14489</v>
       </c>
       <c r="F339" s="1">
-        <v>1875.0</v>
-      </c>
-    </row>
-    <row r="340">
+        <v>1875</v>
+      </c>
+    </row>
+    <row r="340" spans="1:6" ht="15.75" customHeight="1">
       <c r="A340" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B340" s="1" t="s">
         <v>7</v>
@@ -7996,15 +8327,15 @@
         <v>9</v>
       </c>
       <c r="E340" s="2">
-        <v>14219.0</v>
+        <v>14219</v>
       </c>
       <c r="F340" s="1">
-        <v>1763.0</v>
-      </c>
-    </row>
-    <row r="341">
+        <v>1763</v>
+      </c>
+    </row>
+    <row r="341" spans="1:6" ht="15.75" customHeight="1">
       <c r="A341" s="1" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B341" s="1" t="s">
         <v>7</v>
@@ -8016,15 +8347,15 @@
         <v>9</v>
       </c>
       <c r="E341" s="2">
-        <v>2482.0</v>
+        <v>2482</v>
       </c>
       <c r="F341" s="1">
-        <v>1775.0</v>
-      </c>
-    </row>
-    <row r="342">
+        <v>1775</v>
+      </c>
+    </row>
+    <row r="342" spans="1:6" ht="15.75" customHeight="1">
       <c r="A342" s="1" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B342" s="1" t="s">
         <v>7</v>
@@ -8036,15 +8367,15 @@
         <v>9</v>
       </c>
       <c r="E342" s="2">
-        <v>7754.0</v>
+        <v>7754</v>
       </c>
       <c r="F342" s="1">
-        <v>1765.0</v>
-      </c>
-    </row>
-    <row r="343">
+        <v>1765</v>
+      </c>
+    </row>
+    <row r="343" spans="1:6" ht="15.75" customHeight="1">
       <c r="A343" s="1" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B343" s="1" t="s">
         <v>7</v>
@@ -8056,15 +8387,15 @@
         <v>9</v>
       </c>
       <c r="E343" s="2">
-        <v>22325.0</v>
+        <v>22325</v>
       </c>
       <c r="F343" s="1">
-        <v>1730.0</v>
-      </c>
-    </row>
-    <row r="344">
+        <v>1730</v>
+      </c>
+    </row>
+    <row r="344" spans="1:6" ht="15.75" customHeight="1">
       <c r="A344" s="1" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B344" s="1" t="s">
         <v>7</v>
@@ -8076,15 +8407,15 @@
         <v>9</v>
       </c>
       <c r="E344" s="2">
-        <v>10300.0</v>
+        <v>10300</v>
       </c>
       <c r="F344" s="1">
-        <v>1764.0</v>
-      </c>
-    </row>
-    <row r="345">
+        <v>1764</v>
+      </c>
+    </row>
+    <row r="345" spans="1:6" ht="15.75" customHeight="1">
       <c r="A345" s="1" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B345" s="1" t="s">
         <v>7</v>
@@ -8096,15 +8427,15 @@
         <v>16</v>
       </c>
       <c r="E345" s="2">
-        <v>21374.0</v>
+        <v>21374</v>
       </c>
       <c r="F345" s="1">
-        <v>1850.0</v>
-      </c>
-    </row>
-    <row r="346">
+        <v>1850</v>
+      </c>
+    </row>
+    <row r="346" spans="1:6" ht="15.75" customHeight="1">
       <c r="A346" s="1" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B346" s="1" t="s">
         <v>7</v>
@@ -8116,15 +8447,15 @@
         <v>9</v>
       </c>
       <c r="E346" s="1">
-        <v>899.0</v>
+        <v>899</v>
       </c>
       <c r="F346" s="1">
-        <v>1771.0</v>
-      </c>
-    </row>
-    <row r="347">
+        <v>1771</v>
+      </c>
+    </row>
+    <row r="347" spans="1:6" ht="15.75" customHeight="1">
       <c r="A347" s="1" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B347" s="1" t="s">
         <v>18</v>
@@ -8136,15 +8467,15 @@
         <v>43</v>
       </c>
       <c r="E347" s="2">
-        <v>17497.0</v>
+        <v>17497</v>
       </c>
       <c r="F347" s="1">
-        <v>1852.0</v>
-      </c>
-    </row>
-    <row r="348">
+        <v>1852</v>
+      </c>
+    </row>
+    <row r="348" spans="1:6" ht="15.75" customHeight="1">
       <c r="A348" s="1" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B348" s="1" t="s">
         <v>18</v>
@@ -8156,13 +8487,13 @@
         <v>89</v>
       </c>
       <c r="E348" s="2">
-        <v>38120.0</v>
+        <v>38120</v>
       </c>
       <c r="F348" s="1">
-        <v>1642.0</v>
-      </c>
-    </row>
-    <row r="349">
+        <v>1642</v>
+      </c>
+    </row>
+    <row r="349" spans="1:6" ht="15.75" customHeight="1">
       <c r="A349" s="1" t="s">
         <v>31</v>
       </c>
@@ -8176,15 +8507,15 @@
         <v>75</v>
       </c>
       <c r="E349" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="F349" s="1">
+        <v>1684</v>
+      </c>
+    </row>
+    <row r="350" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A350" s="1" t="s">
         <v>374</v>
-      </c>
-      <c r="F349" s="1">
-        <v>1684.0</v>
-      </c>
-    </row>
-    <row r="350">
-      <c r="A350" s="1" t="s">
-        <v>375</v>
       </c>
       <c r="B350" s="1" t="s">
         <v>7</v>
@@ -8196,15 +8527,15 @@
         <v>9</v>
       </c>
       <c r="E350" s="2">
-        <v>1156.0</v>
+        <v>1156</v>
       </c>
       <c r="F350" s="1">
-        <v>1768.0</v>
-      </c>
-    </row>
-    <row r="351">
+        <v>1768</v>
+      </c>
+    </row>
+    <row r="351" spans="1:6" ht="15.75" customHeight="1">
       <c r="A351" s="1" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B351" s="1" t="s">
         <v>7</v>
@@ -8216,15 +8547,15 @@
         <v>9</v>
       </c>
       <c r="E351" s="2">
-        <v>10955.0</v>
+        <v>10955</v>
       </c>
       <c r="F351" s="1">
-        <v>1673.0</v>
-      </c>
-    </row>
-    <row r="352">
+        <v>1673</v>
+      </c>
+    </row>
+    <row r="352" spans="1:6" ht="15.75" customHeight="1">
       <c r="A352" s="1" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B352" s="1" t="s">
         <v>7</v>
@@ -8236,13 +8567,18 @@
         <v>9</v>
       </c>
       <c r="E352" s="2">
-        <v>23793.0</v>
+        <v>23793</v>
       </c>
       <c r="F352" s="1">
-        <v>1639.0</v>
+        <v>1639</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>